--- a/Abgabe/Model Doku Master.xlsx
+++ b/Abgabe/Model Doku Master.xlsx
@@ -1,28 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repo\Bildverarbeitung_Vorlesung\Abgabe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasbraig/Documents/VSCode/Bildverarbeitung_Vorlesung/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{34CE34D1-CCE8-4E57-9FAB-1F9754309545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305068BB-11ED-BC44-B3F4-D7D5CD20633C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
+    <workbookView xWindow="16740" yWindow="580" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="5 Epochen" sheetId="1" r:id="rId1"/>
     <sheet name="30 Epochen" sheetId="3" r:id="rId2"/>
-    <sheet name="60 Epochen" sheetId="2" r:id="rId3"/>
+    <sheet name="30_100px_win" sheetId="4" r:id="rId3"/>
+    <sheet name="60 Epochen" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
   <si>
     <t>epoch</t>
   </si>
@@ -235,7 +249,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -719,16 +733,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1424,6 +1437,655 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Loss und Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30_100px_win'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'30 Epochen'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'30_100px_win'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.65311241149902299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64146190881729104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60405063629150302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51302468776702803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.438176900148391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39999765157699502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.36371305584907498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29016506671905501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.350771814584732</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31612259149551297</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.73604571819305</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.287471503019332</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.217108264565467</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.31307935714721602</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.190007269382476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.176151752471923</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.109340742230415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4086586236953694E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.118345469236373</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6864355206489501E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.7608541101217201E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.111775524914264</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.1842057406902299E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.45089936256408E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.9899733364581999E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.6703585162758799E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6229850482195598E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.8229529960080901E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.5353727182373399E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.7278377092443401E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9735-0D49-B4A5-00B3FC76FE96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30_100px_win'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch_acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'30_100px_win'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.65805286169052102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65805286169052102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69471156597137396</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76141828298568703</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81670671701431197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.84735578298568703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.84435093402862504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8828125</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85516828298568703</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87079328298568703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.48497596383094699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.87079328298568703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.91165864467620805</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.84134614467620805</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.93629807233810403</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.93629807233810403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.95192307233810403</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97836536169052102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.95372593402862504</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.98858171701431197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97836536169052102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95192307233810403</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97115385532379095</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98557692766189497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99459135532379095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99639421701431197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9735-0D49-B4A5-00B3FC76FE96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="234555856"/>
+        <c:axId val="234556816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="234555856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234556816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234556816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234555856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2557,6 +3219,12 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3100,6 +3768,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3644,6 +4815,49 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB06D385-2CDA-414D-A9D2-5C3E1411F71E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4003,29 +5217,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57BFDCE-30F9-4D46-B74D-2AA05CFB7DFB}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="7.1640625" style="4" customWidth="1"/>
     <col min="2" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -4038,8 +5252,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -4052,8 +5266,8 @@
         <v>45711.028113425928</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
@@ -4066,8 +5280,8 @@
         <v>45711.030902777777</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" t="s">
@@ -4080,8 +5294,8 @@
         <v>45711.033726851849</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" t="s">
@@ -4094,8 +5308,8 @@
         <v>45711.036678240744</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" t="s">
@@ -4107,11 +5321,6 @@
       <c r="D7" s="1">
         <v>45711.039444444446</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4125,20 +5334,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8158590-F3A6-4765-A299-96A4AC379C04}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4151,8 +5360,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2">
@@ -4165,8 +5374,8 @@
         <v>45711.061736111114</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3">
@@ -4179,8 +5388,8 @@
         <v>45711.064502314817</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4">
@@ -4193,8 +5402,8 @@
         <v>45711.067118055558</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5">
@@ -4207,8 +5416,8 @@
         <v>45711.069722222222</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6">
@@ -4221,8 +5430,8 @@
         <v>45711.072326388887</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7">
@@ -4235,8 +5444,8 @@
         <v>45711.074942129628</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8">
@@ -4249,8 +5458,8 @@
         <v>45711.077546296299</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9">
@@ -4263,8 +5472,8 @@
         <v>45711.08016203704</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10">
@@ -4277,8 +5486,8 @@
         <v>45711.082777777781</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11">
@@ -4291,8 +5500,8 @@
         <v>45711.085393518515</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12">
@@ -4305,8 +5514,8 @@
         <v>45711.087997685187</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13">
@@ -4319,8 +5528,8 @@
         <v>45711.090613425928</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14">
@@ -4333,8 +5542,8 @@
         <v>45711.093229166669</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15">
@@ -4347,8 +5556,8 @@
         <v>45711.09584490741</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16">
@@ -4361,8 +5570,8 @@
         <v>45711.098460648151</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17">
@@ -4375,8 +5584,8 @@
         <v>45711.101076388892</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18">
@@ -4389,8 +5598,8 @@
         <v>45711.103680555556</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19">
@@ -4403,8 +5612,8 @@
         <v>45711.106296296297</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20">
@@ -4417,8 +5626,8 @@
         <v>45711.108912037038</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21">
@@ -4431,8 +5640,8 @@
         <v>45711.111516203702</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22">
@@ -4445,8 +5654,8 @@
         <v>45711.11414351852</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23">
@@ -4459,8 +5668,8 @@
         <v>45711.116759259261</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24">
@@ -4473,8 +5682,8 @@
         <v>45711.119375000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25">
@@ -4487,8 +5696,8 @@
         <v>45711.121990740743</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26">
@@ -4501,8 +5710,8 @@
         <v>45711.124594907407</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27">
@@ -4515,8 +5724,8 @@
         <v>45711.127210648148</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28">
@@ -4529,8 +5738,8 @@
         <v>45711.129826388889</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29">
@@ -4543,8 +5752,8 @@
         <v>45711.132430555554</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
       <c r="B30">
@@ -4557,8 +5766,8 @@
         <v>45711.135046296295</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
       <c r="B31">
@@ -4569,6 +5778,463 @@
       </c>
       <c r="D31" s="1">
         <v>45711.137662037036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28647B75-35A2-E24B-A571-8888C82690DE}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.65311241149902299</v>
+      </c>
+      <c r="C2">
+        <v>0.65805286169052102</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45713.790729166663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.64146190881729104</v>
+      </c>
+      <c r="C3">
+        <v>0.65805286169052102</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45713.793275462966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.60405063629150302</v>
+      </c>
+      <c r="C4">
+        <v>0.69471156597137396</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45713.79582175926</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.51302468776702803</v>
+      </c>
+      <c r="C5">
+        <v>0.76141828298568703</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45713.798379629632</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.438176900148391</v>
+      </c>
+      <c r="C6">
+        <v>0.81670671701431197</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45713.800925925927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.39999765157699502</v>
+      </c>
+      <c r="C7">
+        <v>0.84735578298568703</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45713.803483796299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.36371305584907498</v>
+      </c>
+      <c r="C8">
+        <v>0.84435093402862504</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45713.806030092594</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.29016506671905501</v>
+      </c>
+      <c r="C9">
+        <v>0.8828125</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45713.808576388888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.350771814584732</v>
+      </c>
+      <c r="C10">
+        <v>0.85516828298568703</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45713.81113425926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.31612259149551297</v>
+      </c>
+      <c r="C11">
+        <v>0.87079328298568703</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45713.813680555555</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>1.73604571819305</v>
+      </c>
+      <c r="C12">
+        <v>0.48497596383094699</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45713.81622685185</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.287471503019332</v>
+      </c>
+      <c r="C13">
+        <v>0.87079328298568703</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45713.818773148145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.217108264565467</v>
+      </c>
+      <c r="C14">
+        <v>0.91165864467620805</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45713.821319444447</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.31307935714721602</v>
+      </c>
+      <c r="C15">
+        <v>0.84134614467620805</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45713.823877314811</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.190007269382476</v>
+      </c>
+      <c r="C16">
+        <v>0.93629807233810403</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45713.826423611114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.176151752471923</v>
+      </c>
+      <c r="C17">
+        <v>0.93629807233810403</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45713.828981481478</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.109340742230415</v>
+      </c>
+      <c r="C18">
+        <v>0.95192307233810403</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45713.83152777778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>6.4086586236953694E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.97836536169052102</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45713.834074074075</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0.118345469236373</v>
+      </c>
+      <c r="C20">
+        <v>0.95372593402862504</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45713.836631944447</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>3.6864355206489501E-2</v>
+      </c>
+      <c r="C21">
+        <v>0.98858171701431197</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45713.839178240742</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5.7608541101217201E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.97836536169052102</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45713.841724537036</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.111775524914264</v>
+      </c>
+      <c r="C23">
+        <v>0.95192307233810403</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45713.844282407408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>8.1842057406902299E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.97115385532379095</v>
+      </c>
+      <c r="D24" s="1">
+        <v>45713.846828703703</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>4.45089936256408E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.98557692766189497</v>
+      </c>
+      <c r="D25" s="1">
+        <v>45713.849386574075</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.9899733364581999E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.99459135532379095</v>
+      </c>
+      <c r="D26" s="1">
+        <v>45713.851956018516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.6703585162758799E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.99639421701431197</v>
+      </c>
+      <c r="D27" s="1">
+        <v>45713.854513888888</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2.6229850482195598E-3</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>45713.857083333336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.8229529960080901E-3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>45713.8596412037</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>4.5353727182373399E-4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>45713.862210648149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>2.7278377092443401E-4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>45713.86478009259</v>
       </c>
     </row>
   </sheetData>
@@ -4577,7 +6243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09D310A-246D-4083-977F-09A8253E80CF}">
   <dimension ref="A1:D61"/>
   <sheetViews>
@@ -4585,16 +6251,16 @@
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -4607,8 +6273,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4621,8 +6287,8 @@
         <v>45711.140451388892</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -4635,8 +6301,8 @@
         <v>45711.143217592595</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -4649,8 +6315,8 @@
         <v>45711.145995370367</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -4663,8 +6329,8 @@
         <v>45711.14875</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -4677,8 +6343,8 @@
         <v>45711.151516203703</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -4691,8 +6357,8 @@
         <v>45711.154293981483</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -4705,8 +6371,8 @@
         <v>45711.157060185185</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -4719,8 +6385,8 @@
         <v>45711.159826388888</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -4733,8 +6399,8 @@
         <v>45711.162592592591</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -4747,8 +6413,8 @@
         <v>45711.165358796294</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -4761,8 +6427,8 @@
         <v>45711.168136574073</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -4775,8 +6441,8 @@
         <v>45711.170902777776</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -4789,8 +6455,8 @@
         <v>45711.173680555556</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -4803,8 +6469,8 @@
         <v>45711.176435185182</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -4817,8 +6483,8 @@
         <v>45711.179201388892</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -4831,8 +6497,8 @@
         <v>45711.181967592594</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -4845,8 +6511,8 @@
         <v>45711.18472222222</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -4859,8 +6525,8 @@
         <v>45711.187488425923</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -4873,8 +6539,8 @@
         <v>45711.190243055556</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -4887,8 +6553,8 @@
         <v>45711.193009259259</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="6">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -4901,8 +6567,8 @@
         <v>45711.195763888885</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="6">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -4915,8 +6581,8 @@
         <v>45711.198530092595</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="6">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -4929,8 +6595,8 @@
         <v>45711.201296296298</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -4943,8 +6609,8 @@
         <v>45711.204062500001</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="6">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -4957,8 +6623,8 @@
         <v>45711.206817129627</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -4971,8 +6637,8 @@
         <v>45711.209583333337</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -4985,8 +6651,8 @@
         <v>45711.21234953704</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -4999,11 +6665,11 @@
         <v>45711.215115740742</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>28</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="3">
         <v>372493705071.974</v>
       </c>
       <c r="C30" t="s">
@@ -5013,11 +6679,11 @@
         <v>45711.217870370368</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>29</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="3">
         <v>205543801712.33701</v>
       </c>
       <c r="C31" t="s">
@@ -5027,11 +6693,11 @@
         <v>45711.220636574071</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>30</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="3">
         <v>138596506076.28201</v>
       </c>
       <c r="C32" t="s">
@@ -5041,11 +6707,11 @@
         <v>45711.223402777781</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>31</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="3">
         <v>112507841549.813</v>
       </c>
       <c r="C33" t="s">
@@ -5055,11 +6721,11 @@
         <v>45711.226215277777</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="6">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>32</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="3">
         <v>9673713975.6441994</v>
       </c>
       <c r="C34" t="s">
@@ -5069,11 +6735,11 @@
         <v>45711.228981481479</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="6">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>33</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="3">
         <v>8427449756.7093897</v>
       </c>
       <c r="C35" t="s">
@@ -5083,11 +6749,11 @@
         <v>45711.231736111113</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="6">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>34</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="3">
         <v>8005661584.3204699</v>
       </c>
       <c r="C36" t="s">
@@ -5097,11 +6763,11 @@
         <v>45711.234502314815</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="6">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>35</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="3">
         <v>6800532446.5047998</v>
       </c>
       <c r="C37" t="s">
@@ -5111,11 +6777,11 @@
         <v>45711.237256944441</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="6">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>36</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="3">
         <v>6156401013.8681602</v>
       </c>
       <c r="C38" t="s">
@@ -5125,11 +6791,11 @@
         <v>45711.240023148152</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="6">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>37</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39" s="3">
         <v>5667672212.4393501</v>
       </c>
       <c r="C39" t="s">
@@ -5139,11 +6805,11 @@
         <v>45711.242789351854</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="6">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>38</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40" s="3">
         <v>53965354709.362099</v>
       </c>
       <c r="C40" t="s">
@@ -5153,11 +6819,11 @@
         <v>45711.245555555557</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="6">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41" s="3">
         <v>4807017376.1516304</v>
       </c>
       <c r="C41" t="s">
@@ -5167,11 +6833,11 @@
         <v>45711.248310185183</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="6">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>40</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42" s="3">
         <v>468702683.06520301</v>
       </c>
       <c r="C42" t="s">
@@ -5181,11 +6847,11 @@
         <v>45711.251076388886</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="6">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>41</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43" s="3">
         <v>4289641310.60638</v>
       </c>
       <c r="C43" t="s">
@@ -5195,11 +6861,11 @@
         <v>45711.253842592596</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="6">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>42</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44" s="3">
         <v>4053726115.6714501</v>
       </c>
       <c r="C44" t="s">
@@ -5209,11 +6875,11 @@
         <v>45711.256608796299</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="6">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45" s="3">
         <v>3703806214.6166301</v>
       </c>
       <c r="C45" t="s">
@@ -5223,11 +6889,11 @@
         <v>45711.259375000001</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="6">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>44</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46" s="3">
         <v>3669720626.9309301</v>
       </c>
       <c r="C46" t="s">
@@ -5237,11 +6903,11 @@
         <v>45711.262141203704</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="6">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>45</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" s="3">
         <v>33947001156.775501</v>
       </c>
       <c r="C47" t="s">
@@ -5251,11 +6917,11 @@
         <v>45711.264907407407</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="6">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>46</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48" s="3">
         <v>3089668325.6287298</v>
       </c>
       <c r="C48" t="s">
@@ -5265,11 +6931,11 @@
         <v>45711.26767361111</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="6">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
         <v>47</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" s="3">
         <v>2925939725.1735201</v>
       </c>
       <c r="C49" t="s">
@@ -5279,11 +6945,11 @@
         <v>45711.270439814813</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="6">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
         <v>48</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50" s="3">
         <v>29047437237.750198</v>
       </c>
       <c r="C50" t="s">
@@ -5293,11 +6959,11 @@
         <v>45711.273206018515</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="6">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
         <v>49</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51" s="3">
         <v>26584962142.806</v>
       </c>
       <c r="C51" t="s">
@@ -5307,11 +6973,11 @@
         <v>45711.275972222225</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="6">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
         <v>50</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52" s="3">
         <v>25627798549.976398</v>
       </c>
       <c r="C52" t="s">
@@ -5321,11 +6987,11 @@
         <v>45711.278738425928</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="6">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
         <v>51</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53" s="3">
         <v>2439732952.5527301</v>
       </c>
       <c r="C53" t="s">
@@ -5335,11 +7001,11 @@
         <v>45711.281493055554</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
         <v>52</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54" s="3">
         <v>2318159431.5246902</v>
       </c>
       <c r="C54" t="s">
@@ -5349,11 +7015,11 @@
         <v>45711.284259259257</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
         <v>53</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55" s="3">
         <v>2290712245.6672301</v>
       </c>
       <c r="C55" t="s">
@@ -5363,11 +7029,11 @@
         <v>45711.28702546296</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
         <v>54</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56" s="3">
         <v>20865927581.326099</v>
       </c>
       <c r="C56" t="s">
@@ -5377,11 +7043,11 @@
         <v>45711.28979166667</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
         <v>55</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57" s="3">
         <v>20686575226.136398</v>
       </c>
       <c r="C57" t="s">
@@ -5391,11 +7057,11 @@
         <v>45711.292557870373</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
         <v>56</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58" s="3">
         <v>19956355572.503502</v>
       </c>
       <c r="C58" t="s">
@@ -5405,11 +7071,11 @@
         <v>45711.295324074075</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
         <v>57</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59" s="3">
         <v>19126291590.509899</v>
       </c>
       <c r="C59" t="s">
@@ -5419,11 +7085,11 @@
         <v>45711.298090277778</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
         <v>58</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60" s="3">
         <v>18289648551.2173</v>
       </c>
       <c r="C60" t="s">
@@ -5433,11 +7099,11 @@
         <v>45711.300856481481</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="6">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
         <v>59</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61" s="3">
         <v>16763536905.273199</v>
       </c>
       <c r="C61" t="s">

--- a/Abgabe/Model Doku Master.xlsx
+++ b/Abgabe/Model Doku Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasbraig/Documents/VSCode/Bildverarbeitung_Vorlesung/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305068BB-11ED-BC44-B3F4-D7D5CD20633C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C11B37-320C-E04D-BACD-8C8554CBC9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16740" yWindow="580" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
+    <workbookView xWindow="4080" yWindow="500" windowWidth="30240" windowHeight="17880" activeTab="3" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="5 Epochen" sheetId="1" r:id="rId1"/>
@@ -5791,7 +5791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28647B75-35A2-E24B-A571-8888C82690DE}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
@@ -6247,7 +6247,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09D310A-246D-4083-977F-09A8253E80CF}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/Abgabe/Model Doku Master.xlsx
+++ b/Abgabe/Model Doku Master.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasbraig/Documents/VSCode/Bildverarbeitung_Vorlesung/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C11B37-320C-E04D-BACD-8C8554CBC9C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588EC62-AED0-D64C-9B46-048EA3E6D7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="500" windowWidth="30240" windowHeight="17880" activeTab="3" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22380" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
   </bookViews>
   <sheets>
-    <sheet name="5 Epochen" sheetId="1" r:id="rId1"/>
-    <sheet name="30 Epochen" sheetId="3" r:id="rId2"/>
-    <sheet name="30_100px_win" sheetId="4" r:id="rId3"/>
-    <sheet name="60 Epochen" sheetId="2" r:id="rId4"/>
+    <sheet name="Overview" sheetId="5" r:id="rId1"/>
+    <sheet name="5 Epochen" sheetId="1" r:id="rId2"/>
+    <sheet name="35_70px" sheetId="3" r:id="rId3"/>
+    <sheet name="30_100px" sheetId="7" r:id="rId4"/>
+    <sheet name="30_aug_100px" sheetId="4" r:id="rId5"/>
+    <sheet name="40_aug_4Layer_100px" sheetId="6" r:id="rId6"/>
+    <sheet name="60 Epochen" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>epoch</t>
   </si>
@@ -244,11 +247,62 @@
   <si>
     <t>0.00013164611300453544</t>
   </si>
+  <si>
+    <t>timestamp_day</t>
+  </si>
+  <si>
+    <t>timestamp_time</t>
+  </si>
+  <si>
+    <t>Differenzzeit</t>
+  </si>
+  <si>
+    <t>Modellname</t>
+  </si>
+  <si>
+    <t>Testerfolg</t>
+  </si>
+  <si>
+    <t>Zeit Pro Epoche (gemittelt)</t>
+  </si>
+  <si>
+    <t>Gesamttrainingszeit</t>
+  </si>
+  <si>
+    <t>Modellgröße</t>
+  </si>
+  <si>
+    <t>modell30_AUG_100px</t>
+  </si>
+  <si>
+    <t>model40_AUG_4Layer_100px_ES</t>
+  </si>
+  <si>
+    <t>Gesamtzeit:</t>
+  </si>
+  <si>
+    <t>Mittlere Dauer</t>
+  </si>
+  <si>
+    <t>model35_3Layer_70px</t>
+  </si>
+  <si>
+    <t>model90_3Layer_70px</t>
+  </si>
+  <si>
+    <t>model30_3Layer_100px</t>
+  </si>
+  <si>
+    <t>timestamp_date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#\ &quot;MB&quot;"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -733,7 +787,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -744,6 +798,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -791,6 +851,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF138ADA"/>
+      <color rgb="FF004393"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -803,6 +869,483 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zeit Pro Epoche (gemittelt)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>model35_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>model90_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>model30_3Layer_100px</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>modell30_AUG_100px</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>model40_AUG_4Layer_100px_ES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>2.6313997821350772E-3</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="h:mm:ss">
+                  <c:v>2.7945402298850579E-3</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="h:mm:ss">
+                  <c:v>2.5534802043422717E-3</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>6.0783844189016658E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C013-4F4D-A81C-5D8C04E05ECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testerfolg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>model35_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>model90_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>model30_3Layer_100px</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>modell30_AUG_100px</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>model40_AUG_4Layer_100px_ES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="0%">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0%">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0%">
+                  <c:v>0.94</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-C013-4F4D-A81C-5D8C04E05ECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gesamttrainingszeit</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>model35_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>model90_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>model30_3Layer_100px</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>modell30_AUG_100px</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>model40_AUG_4Layer_100px_ES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>8.9467592592592626E-2</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="[h]:mm:ss">
+                  <c:v>7.4050925925925881E-2</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="h:mm:ss">
+                  <c:v>8.1041666666666679E-2</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>1.7627314814814832E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-C013-4F4D-A81C-5D8C04E05ECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Overview!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Modellgröße</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Overview!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>model35_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>model90_3Layer_70px</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>model30_3Layer_100px</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>modell30_AUG_100px</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>model40_AUG_4Layer_100px_ES</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Overview!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="4" formatCode="#\ &quot;MB&quot;">
+                  <c:v>950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-C013-4F4D-A81C-5D8C04E05ECE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1517849776"/>
+        <c:axId val="1942616064"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1517849776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1942616064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1942616064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1517849776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -882,7 +1425,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30 Epochen'!$A$1</c:f>
+              <c:f>'35_70px'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -917,10 +1460,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'30 Epochen'!$A$2:$A$31</c:f>
+              <c:f>'35_70px'!$A$2:$A$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1010,105 +1553,135 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30 Epochen'!$B$2:$B$31</c:f>
+              <c:f>'35_70px'!$B$2:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.65101671218872004</c:v>
+                  <c:v>0.67347645759582497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64965766668319702</c:v>
+                  <c:v>0.65245240926742498</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61809629201889005</c:v>
+                  <c:v>0.64665395021438599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52039653062820401</c:v>
+                  <c:v>0.62569475173950195</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65033096075057895</c:v>
+                  <c:v>0.59616756439208896</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.54434025287628096</c:v>
+                  <c:v>0.534198999404907</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.46042209863662698</c:v>
+                  <c:v>0.58616799116134599</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.425252646207809</c:v>
+                  <c:v>0.442780911922454</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.34911200404167098</c:v>
+                  <c:v>0.38921964168548501</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.30837419629096902</c:v>
+                  <c:v>0.34082353115081698</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.24085046350955899</c:v>
+                  <c:v>0.32693409919738697</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22846694290637901</c:v>
+                  <c:v>0.30598941445350603</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.17525441944599099</c:v>
+                  <c:v>0.25903153419494601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.185634359717369</c:v>
+                  <c:v>0.204935863614082</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.14862950146198201</c:v>
+                  <c:v>0.130231797695159</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.101985000073909</c:v>
+                  <c:v>0.22163559496402699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7.3275193572044303E-2</c:v>
+                  <c:v>0.181041300296783</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.29693993926048E-2</c:v>
+                  <c:v>9.7837090492248494E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.9521900713443701E-2</c:v>
+                  <c:v>6.43321648240089E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3795122057199402E-2</c:v>
+                  <c:v>3.46801541745662E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.30995970964431E-2</c:v>
+                  <c:v>2.1523922681808399E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7874687016010201E-2</c:v>
+                  <c:v>3.1384941190481103E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.66961525380611E-2</c:v>
+                  <c:v>1.27134192734956E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.42192505300045E-2</c:v>
+                  <c:v>7.2364225052297098E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.73348437622189E-3</c:v>
+                  <c:v>5.8456119149923299E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.7078420389443601E-3</c:v>
+                  <c:v>9.9495276808738708E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.37784075923264E-3</c:v>
+                  <c:v>5.6409288663417101E-4</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.190218895673751</c:v>
+                  <c:v>5.9576816856861097E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.1643003225326503E-2</c:v>
+                  <c:v>3.3385165035724598E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.8772948533296498E-2</c:v>
+                  <c:v>5.0590764731168698E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.16730423271656E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.0284699276089599E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.10075806826353E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.7304111272096599E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.6820761896669804E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1125,7 +1698,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30 Epochen'!$C$1</c:f>
+              <c:f>'35_70px'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1158,101 +1731,230 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'35_70px'!$A$2:$A$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="35"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30 Epochen'!$C$2:$C$31</c:f>
+              <c:f>'35_70px'!$C$2:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0.64232623577117898</c:v>
+                  <c:v>0.64640343189239502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.64349114894866899</c:v>
+                  <c:v>0.64756840467453003</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.64523857831954901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.76229661703109697</c:v>
+                  <c:v>0.664561808109283</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.636843621730804</c:v>
+                  <c:v>0.72210609912872303</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.738239645957946</c:v>
+                  <c:v>0.73639976978302002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.785003662109375</c:v>
+                  <c:v>0.70537173748016302</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.80966156721115101</c:v>
+                  <c:v>0.80447483062744096</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.85050845146179199</c:v>
+                  <c:v>0.83424556255340498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.86973923444747903</c:v>
+                  <c:v>0.859485924243927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.89798444509506203</c:v>
+                  <c:v>0.86622595787048295</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.90337461233139005</c:v>
+                  <c:v>0.86498701572418202</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.925573229789733</c:v>
+                  <c:v>0.89428621530532804</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.92677509784698398</c:v>
+                  <c:v>0.92621111869812001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.94179916381835904</c:v>
+                  <c:v>0.95796966552734297</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.95984649658203103</c:v>
+                  <c:v>0.89978730678558305</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.97599852085113503</c:v>
+                  <c:v>0.92561018466949396</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.972975194454193</c:v>
+                  <c:v>0.96215790510177601</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.98319154977798395</c:v>
+                  <c:v>0.97720044851303101</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.98978364467620805</c:v>
+                  <c:v>0.98737978935241699</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.98619639873504605</c:v>
+                  <c:v>0.99098557233810403</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.97718197107314997</c:v>
+                  <c:v>0.99098557233810403</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.98260909318923895</c:v>
+                  <c:v>0.99581176042556696</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.99579328298568703</c:v>
+                  <c:v>0.99881654977798395</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0.99819713830947798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99699521064758301</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.99939906597137396</c:v>
-                </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.94181764125823897</c:v>
+                  <c:v>0.99759614467620805</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.98799926042556696</c:v>
+                  <c:v>0.98737978935241699</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99399036169052102</c:v>
+                  <c:v>0.97840237617492598</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.99160504341125399</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.99338942766189497</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.99338942766189497</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.99459135532379095</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.99699521064758301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,7 +2138,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1519,7 +2221,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30_100px_win'!$A$1</c:f>
+              <c:f>'30_100px'!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1560,7 +2262,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'30 Epochen'!$A$2:$A$31</c:f>
+              <c:f>'35_70px'!$A$2:$A$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1659,7 +2361,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'30_100px_win'!$B$2:$B$31</c:f>
+              <c:f>'30_100px'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1759,7 +2461,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9735-0D49-B4A5-00B3FC76FE96}"/>
+              <c16:uniqueId val="{00000000-6EFD-044A-BDBB-1ED981ADFEF0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1768,7 +2470,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30_100px_win'!$C$1</c:f>
+              <c:f>'30_100px'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1809,7 +2511,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'30_100px_win'!$C$2:$C$31</c:f>
+              <c:f>'30_100px'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1896,6 +2598,655 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6EFD-044A-BDBB-1ED981ADFEF0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="234555856"/>
+        <c:axId val="234556816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="234555856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234556816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234556816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234555856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Loss und Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30_aug_100px'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:shade val="76000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:shade val="76000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'35_70px'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'30_aug_100px'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.66723006963729803</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66976571083068803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.81972056627273504</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51871871948242099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39778196811675998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40720316767692499</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37344008684158297</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.59694004058837802</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.38168111443519498</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.31742793321609403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.226172015070915</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.37128913402557301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.30335772037506098</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.21328763663768699</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.14179189503192899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15136498212814301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.158499360084533</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.138723239302635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.1595242023468004E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.165060684084892</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3302624002098999E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.12913362681865601</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1455624401569297E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7950939014553999E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0998938009142799E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.17210540920495E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7072617560624998E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6565617192536501E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.6189216403290599E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.06483080890029E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9735-0D49-B4A5-00B3FC76FE96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'30_aug_100px'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch_acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:tint val="77000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:tint val="77000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'30_aug_100px'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.62019228935241699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65805286169052102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74759614467620805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76502406597137396</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82512021064758301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.80528843402862504</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.82752406597137396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.70733171701431197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.80288463830947798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.86298078298568703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91826921701431197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83173078298568703</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.88581728935241699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.90264421701431197</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.94471156597137396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90925478935241699</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.93149036169052102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95012021064758301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97055286169052102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.93990385532379095</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99399036169052102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.95012021064758301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.98377406597137396</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99459135532379095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.99459135532379095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99639421701431197</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99939906597137396</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.99939906597137396</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>1</c:v>
@@ -2085,7 +3436,731 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" b="1">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Loss und Accuracy</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'40_aug_4Layer_100px'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="004393"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004393"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'35_70px'!$A$2:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'40_aug_4Layer_100px'!$B$2:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.67528265714645297</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64553087949752797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73851281404495195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.634502053260803</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55755633115768399</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52301251888275102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49990636110305697</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39207166433334301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58544731140136697</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.281953245401382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.22630411386489799</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21715730428695601</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.144766345620155</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.10837259888648899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.2338107526302296E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.195367246866226</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.185785591602325</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.14600118994712E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6215523704886398E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.7935564331710304E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.05975384637713E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2800687476992598E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.9988053292035996E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.7674263585358802E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.11184315755963E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.17285496182739E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.6144608855247402E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9773428793996499E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8216967843472898E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4383774618618098E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78F3-B446-A993-DFCB5071CD69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'40_aug_4Layer_100px'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>epoch_acc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="138ADA"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="138ADA"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'40_aug_4Layer_100px'!$C$2:$C$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0.62019228935241699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65805286169052102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65805286169052102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.62019228935241699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.70072114467620805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77223557233810403</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.79026442766189497</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.80949521064758301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.72896635532379095</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89543271064758301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91165864467620805</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91706728935241699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.94050478935241699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.95673078298568703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.96274036169052102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.90504807233810403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.91947114467620805</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96274036169052102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99579328298568703</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.99699521064758301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.99819713830947798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.99939906597137396</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.99819713830947798</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99879807233810403</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.99939906597137396</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.99879807233810403</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78F3-B446-A993-DFCB5071CD69}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="234555856"/>
+        <c:axId val="234556816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="234555856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234556816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="234556816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="234555856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.78578813735950426"/>
+          <c:y val="0.4424653323760302"/>
+          <c:w val="0.18195380267634653"/>
+          <c:h val="0.15276326329593126"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -2165,7 +4240,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'30 Epochen'!$B$1</c:f>
+              <c:f>'35_70px'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3219,12 +5294,64 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
   <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3265,7 +5392,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4773,20 +6900,1570 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33717</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>101149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF0CCEA-764D-4A40-D09A-98BDD06F3C51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117474</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>682625</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4814,20 +8491,63 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>736601</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>34925</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54E533EF-ECD8-8F49-88F7-20548D312185}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>736601</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4857,7 +8577,50 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495301</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3FEE591-10B9-DA42-9FD9-E007576CB74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5216,6 +8979,114 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC10158E-3963-A748-AB22-DA18A4F1DE3E}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="C2" s="6">
+        <f>'35_70px'!F41</f>
+        <v>2.6313997821350772E-3</v>
+      </c>
+      <c r="D2" s="6">
+        <f>'35_70px'!F40</f>
+        <v>8.9467592592592626E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="C4" s="6">
+        <f>'30_aug_100px'!F35</f>
+        <v>2.7945402298850579E-3</v>
+      </c>
+      <c r="D4" s="8">
+        <f>'30_100px'!F34</f>
+        <v>7.4050925925925881E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="6">
+        <f>'30_100px'!F35</f>
+        <v>2.5534802043422717E-3</v>
+      </c>
+      <c r="D5" s="6">
+        <f>'30_aug_100px'!F34</f>
+        <v>8.1041666666666679E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="C6" s="6">
+        <f>'40_aug_4Layer_100px'!F35</f>
+        <v>6.0783844189016658E-4</v>
+      </c>
+      <c r="D6" s="6">
+        <f>'40_aug_4Layer_100px'!F34</f>
+        <v>1.7627314814814832E-2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>950</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57BFDCE-30F9-4D46-B74D-2AA05CFB7DFB}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -5330,12 +9201,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8158590-F3A6-4765-A299-96A4AC379C04}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5344,440 +9215,769 @@
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="E1"/>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.65101671218872004</v>
+        <v>0.67347645759582497</v>
       </c>
       <c r="C2">
-        <v>0.64232623577117898</v>
-      </c>
-      <c r="D2" s="1">
-        <v>45711.061736111114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
+        <v>0.64640343189239502</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.59620370370370368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.64965766668319702</v>
+        <v>0.65245240926742498</v>
       </c>
       <c r="C3">
-        <v>0.64349114894866899</v>
-      </c>
-      <c r="D3" s="1">
-        <v>45711.064502314817</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
+        <v>0.64756840467453003</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.5988310185185185</v>
+      </c>
+      <c r="F3" s="6">
+        <f t="shared" ref="F3:F4" si="0">E3-E2</f>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.61809629201889005</v>
+        <v>0.64665395021438599</v>
       </c>
       <c r="C4">
         <v>0.64523857831954901</v>
       </c>
-      <c r="D4" s="1">
-        <v>45711.067118055558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+      <c r="D4" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.60146990740740736</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.52039653062820401</v>
+        <v>0.62569475173950195</v>
       </c>
       <c r="C5">
-        <v>0.76229661703109697</v>
-      </c>
-      <c r="D5" s="1">
-        <v>45711.069722222222</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="4">
+        <v>0.664561808109283</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.60409722222222217</v>
+      </c>
+      <c r="F5" s="6">
+        <f>E5-E4</f>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.65033096075057895</v>
+        <v>0.59616756439208896</v>
       </c>
       <c r="C6">
-        <v>0.636843621730804</v>
-      </c>
-      <c r="D6" s="1">
-        <v>45711.072326388887</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
+        <v>0.72210609912872303</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.60672453703703699</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" ref="F6:F36" si="1">E6-E5</f>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.54434025287628096</v>
+        <v>0.534198999404907</v>
       </c>
       <c r="C7">
-        <v>0.738239645957946</v>
-      </c>
-      <c r="D7" s="1">
-        <v>45711.074942129628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
+        <v>0.73639976978302002</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.60936342592592596</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888889683E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.46042209863662698</v>
+        <v>0.58616799116134599</v>
       </c>
       <c r="C8">
-        <v>0.785003662109375</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45711.077546296299</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
+        <v>0.70537173748016302</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.61199074074074078</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.425252646207809</v>
+        <v>0.442780911922454</v>
       </c>
       <c r="C9">
-        <v>0.80966156721115101</v>
-      </c>
-      <c r="D9" s="1">
-        <v>45711.08016203704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
+        <v>0.80447483062744096</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.6146180555555556</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.34911200404167098</v>
+        <v>0.38921964168548501</v>
       </c>
       <c r="C10">
-        <v>0.85050845146179199</v>
-      </c>
-      <c r="D10" s="1">
-        <v>45711.082777777781</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
+        <v>0.83424556255340498</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.61724537037037042</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.30837419629096902</v>
+        <v>0.34082353115081698</v>
       </c>
       <c r="C11">
-        <v>0.86973923444747903</v>
-      </c>
-      <c r="D11" s="1">
-        <v>45711.085393518515</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
+        <v>0.859485924243927</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.61987268518518523</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.24085046350955899</v>
+        <v>0.32693409919738697</v>
       </c>
       <c r="C12">
-        <v>0.89798444509506203</v>
-      </c>
-      <c r="D12" s="1">
-        <v>45711.087997685187</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
+        <v>0.86622595787048295</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.62250000000000005</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.22846694290637901</v>
+        <v>0.30598941445350603</v>
       </c>
       <c r="C13">
-        <v>0.90337461233139005</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45711.090613425928</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+        <v>0.86498701572418202</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.62513888888888891</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.17525441944599099</v>
+        <v>0.25903153419494601</v>
       </c>
       <c r="C14">
-        <v>0.925573229789733</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45711.093229166669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+        <v>0.89428621530532804</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.62776620370370373</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.185634359717369</v>
+        <v>0.204935863614082</v>
       </c>
       <c r="C15">
-        <v>0.92677509784698398</v>
-      </c>
-      <c r="D15" s="1">
-        <v>45711.09584490741</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+        <v>0.92621111869812001</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.63039351851851855</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.14862950146198201</v>
+        <v>0.130231797695159</v>
       </c>
       <c r="C16">
-        <v>0.94179916381835904</v>
-      </c>
-      <c r="D16" s="1">
-        <v>45711.098460648151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+        <v>0.95796966552734297</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.6330324074074074</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.101985000073909</v>
+        <v>0.22163559496402699</v>
       </c>
       <c r="C17">
-        <v>0.95984649658203103</v>
-      </c>
-      <c r="D17" s="1">
-        <v>45711.101076388892</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
+        <v>0.89978730678558305</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.63565972222222222</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.3275193572044303E-2</v>
+        <v>0.181041300296783</v>
       </c>
       <c r="C18">
-        <v>0.97599852085113503</v>
-      </c>
-      <c r="D18" s="1">
-        <v>45711.103680555556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
+        <v>0.92561018466949396</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.63828703703703704</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.29693993926048E-2</v>
+        <v>9.7837090492248494E-2</v>
       </c>
       <c r="C19">
-        <v>0.972975194454193</v>
-      </c>
-      <c r="D19" s="1">
-        <v>45711.106296296297</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
+        <v>0.96215790510177601</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.64091435185185186</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.9521900713443701E-2</v>
+        <v>6.43321648240089E-2</v>
       </c>
       <c r="C20">
-        <v>0.98319154977798395</v>
-      </c>
-      <c r="D20" s="1">
-        <v>45711.108912037038</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
+        <v>0.97720044851303101</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.64355324074074072</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.3795122057199402E-2</v>
+        <v>3.46801541745662E-2</v>
       </c>
       <c r="C21">
-        <v>0.98978364467620805</v>
-      </c>
-      <c r="D21" s="1">
-        <v>45711.111516203702</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
+        <v>0.98737978935241699</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.64618055555555554</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.30995970964431E-2</v>
+        <v>2.1523922681808399E-2</v>
       </c>
       <c r="C22">
-        <v>0.98619639873504605</v>
-      </c>
-      <c r="D22" s="1">
-        <v>45711.11414351852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
+        <v>0.99098557233810403</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.64881944444444439</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.7874687016010201E-2</v>
+        <v>3.1384941190481103E-2</v>
       </c>
       <c r="C23">
-        <v>0.97718197107314997</v>
-      </c>
-      <c r="D23" s="1">
-        <v>45711.116759259261</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
+        <v>0.99098557233810403</v>
+      </c>
+      <c r="D23" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.65145833333333336</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888889683E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.66961525380611E-2</v>
+        <v>1.27134192734956E-2</v>
       </c>
       <c r="C24">
-        <v>0.98260909318923895</v>
-      </c>
-      <c r="D24" s="1">
-        <v>45711.119375000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
+        <v>0.99581176042556696</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.65409722222222222</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.42192505300045E-2</v>
+        <v>7.2364225052297098E-3</v>
       </c>
       <c r="C25">
-        <v>0.99579328298568703</v>
-      </c>
-      <c r="D25" s="1">
-        <v>45711.121990740743</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
+        <v>0.99881654977798395</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.65673611111111108</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>2.73348437622189E-3</v>
+        <v>5.8456119149923299E-3</v>
       </c>
       <c r="C26">
+        <v>0.99819713830947798</v>
+      </c>
+      <c r="D26" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.65936342592592589</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>9.9495276808738708E-3</v>
+      </c>
+      <c r="C27">
+        <v>0.99699521064758301</v>
+      </c>
+      <c r="D27" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.66200231481481486</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888889683E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>5.6409288663417101E-4</v>
+      </c>
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>45711.124594907407</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>2.7078420389443601E-3</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>45711.127210648148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>1.37784075923264E-3</v>
-      </c>
-      <c r="C28">
-        <v>0.99939906597137396</v>
-      </c>
-      <c r="D28" s="1">
-        <v>45711.129826388889</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
+      <c r="D28" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.66462962962962968</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.190218895673751</v>
+        <v>5.9576816856861097E-3</v>
       </c>
       <c r="C29">
-        <v>0.94181764125823897</v>
-      </c>
-      <c r="D29" s="1">
-        <v>45711.132430555554</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+        <v>0.99759614467620805</v>
+      </c>
+      <c r="D29" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.66726851851851854</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>3.1643003225326503E-2</v>
+        <v>3.3385165035724598E-2</v>
       </c>
       <c r="C30">
-        <v>0.98799926042556696</v>
-      </c>
-      <c r="D30" s="1">
-        <v>45711.135046296295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
+        <v>0.98737978935241699</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.66989583333333336</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>1.8772948533296498E-2</v>
+        <v>5.0590764731168698E-2</v>
       </c>
       <c r="C31">
-        <v>0.99399036169052102</v>
-      </c>
-      <c r="D31" s="1">
-        <v>45711.137662037036</v>
+        <v>0.97840237617492598</v>
+      </c>
+      <c r="D31" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.67252314814814818</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>2.16730423271656E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.99160504341125399</v>
+      </c>
+      <c r="D32" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.67516203703703703</v>
+      </c>
+      <c r="F32" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6388888888888573E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2.0284699276089599E-2</v>
+      </c>
+      <c r="C33">
+        <v>0.99338942766189497</v>
+      </c>
+      <c r="D33" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0.67778935185185185</v>
+      </c>
+      <c r="F33" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>2.10075806826353E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.99338942766189497</v>
+      </c>
+      <c r="D34" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.68041666666666667</v>
+      </c>
+      <c r="F34" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1.7304111272096599E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.99459135532379095</v>
+      </c>
+      <c r="D35" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.68304398148148149</v>
+      </c>
+      <c r="F35" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>7.6820761896669804E-3</v>
+      </c>
+      <c r="C36">
+        <v>0.99699521064758301</v>
+      </c>
+      <c r="D36" s="7">
+        <v>45711</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.68567129629629631</v>
+      </c>
+      <c r="F36" s="6">
+        <f t="shared" si="1"/>
+        <v>2.6273148148148184E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="8">
+        <f>SUM(F3:F36)</f>
+        <v>8.9467592592592626E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="6">
+        <f>AVERAGE(F3:F36)</f>
+        <v>2.6313997821350772E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5787,12 +9987,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28647B75-35A2-E24B-A571-8888C82690DE}">
-  <dimension ref="A1:D31"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C0DCDC-007C-304F-862C-3BA401D0D132}">
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5800,10 +10000,12 @@
     <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -5813,11 +10015,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -5827,11 +10035,14 @@
       <c r="C2">
         <v>0.65805286169052102</v>
       </c>
-      <c r="D2" s="1">
-        <v>45713.790729166663</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D2" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.79072916666666671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -5841,11 +10052,18 @@
       <c r="C3">
         <v>0.65805286169052102</v>
       </c>
-      <c r="D3" s="1">
-        <v>45713.793275462966</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D3" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.79327546296296292</v>
+      </c>
+      <c r="F3" s="6">
+        <f>E3-E2</f>
+        <v>2.5462962962962132E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -5855,11 +10073,18 @@
       <c r="C4">
         <v>0.69471156597137396</v>
       </c>
-      <c r="D4" s="1">
-        <v>45713.79582175926</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.79582175925925924</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F31" si="0">E4-E3</f>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -5869,11 +10094,18 @@
       <c r="C5">
         <v>0.76141828298568703</v>
       </c>
-      <c r="D5" s="1">
-        <v>45713.798379629632</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D5" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.79837962962962961</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -5883,11 +10115,18 @@
       <c r="C6">
         <v>0.81670671701431197</v>
       </c>
-      <c r="D6" s="1">
-        <v>45713.800925925927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.80092592592592593</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -5897,11 +10136,18 @@
       <c r="C7">
         <v>0.84735578298568703</v>
       </c>
-      <c r="D7" s="1">
-        <v>45713.803483796299</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.80348379629629629</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -5911,11 +10157,18 @@
       <c r="C8">
         <v>0.84435093402862504</v>
       </c>
-      <c r="D8" s="1">
-        <v>45713.806030092594</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.80603009259259262</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -5925,11 +10178,18 @@
       <c r="C9">
         <v>0.8828125</v>
       </c>
-      <c r="D9" s="1">
-        <v>45713.808576388888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.80857638888888894</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -5939,11 +10199,18 @@
       <c r="C10">
         <v>0.85516828298568703</v>
       </c>
-      <c r="D10" s="1">
-        <v>45713.81113425926</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.8111342592592593</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -5953,11 +10220,18 @@
       <c r="C11">
         <v>0.87079328298568703</v>
       </c>
-      <c r="D11" s="1">
-        <v>45713.813680555555</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.81368055555555552</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962962132E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -5967,11 +10241,18 @@
       <c r="C12">
         <v>0.48497596383094699</v>
       </c>
-      <c r="D12" s="1">
-        <v>45713.81622685185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.81622685185185184</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -5981,11 +10262,18 @@
       <c r="C13">
         <v>0.87079328298568703</v>
       </c>
-      <c r="D13" s="1">
-        <v>45713.818773148145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.81877314814814817</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -5995,11 +10283,18 @@
       <c r="C14">
         <v>0.91165864467620805</v>
       </c>
-      <c r="D14" s="1">
-        <v>45713.821319444447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.82131944444444449</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -6009,11 +10304,18 @@
       <c r="C15">
         <v>0.84134614467620805</v>
       </c>
-      <c r="D15" s="1">
-        <v>45713.823877314811</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.82387731481481485</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -6023,11 +10325,18 @@
       <c r="C16">
         <v>0.93629807233810403</v>
       </c>
-      <c r="D16" s="1">
-        <v>45713.826423611114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.82642361111111107</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962962132E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -6037,11 +10346,18 @@
       <c r="C17">
         <v>0.93629807233810403</v>
       </c>
-      <c r="D17" s="1">
-        <v>45713.828981481478</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.82898148148148143</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -6051,11 +10367,18 @@
       <c r="C18">
         <v>0.95192307233810403</v>
       </c>
-      <c r="D18" s="1">
-        <v>45713.83152777778</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.83152777777777775</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -6065,11 +10388,18 @@
       <c r="C19">
         <v>0.97836536169052102</v>
       </c>
-      <c r="D19" s="1">
-        <v>45713.834074074075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.83407407407407408</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -6079,11 +10409,18 @@
       <c r="C20">
         <v>0.95372593402862504</v>
       </c>
-      <c r="D20" s="1">
-        <v>45713.836631944447</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.83663194444444444</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -6093,11 +10430,18 @@
       <c r="C21">
         <v>0.98858171701431197</v>
       </c>
-      <c r="D21" s="1">
-        <v>45713.839178240742</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.83917824074074077</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -6107,11 +10451,18 @@
       <c r="C22">
         <v>0.97836536169052102</v>
       </c>
-      <c r="D22" s="1">
-        <v>45713.841724537036</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.84172453703703709</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962963243E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -6121,11 +10472,18 @@
       <c r="C23">
         <v>0.95192307233810403</v>
       </c>
-      <c r="D23" s="1">
-        <v>45713.844282407408</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D23" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.84428240740740745</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -6135,11 +10493,18 @@
       <c r="C24">
         <v>0.97115385532379095</v>
       </c>
-      <c r="D24" s="1">
-        <v>45713.846828703703</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.84682870370370367</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5462962962962132E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -6149,11 +10514,18 @@
       <c r="C25">
         <v>0.98557692766189497</v>
       </c>
-      <c r="D25" s="1">
-        <v>45713.849386574075</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D25" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.84938657407407403</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -6163,11 +10535,18 @@
       <c r="C26">
         <v>0.99459135532379095</v>
       </c>
-      <c r="D26" s="1">
-        <v>45713.851956018516</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D26" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.85195601851851854</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.569444444444513E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -6177,11 +10556,18 @@
       <c r="C27">
         <v>0.99639421701431197</v>
       </c>
-      <c r="D27" s="1">
-        <v>45713.854513888888</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D27" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.85451388888888891</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -6191,11 +10577,18 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1">
-        <v>45713.857083333336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.85708333333333331</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>2.569444444444402E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -6205,11 +10598,18 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="1">
-        <v>45713.8596412037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D29" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.85964120370370367</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>2.5578703703703631E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6219,11 +10619,18 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="1">
-        <v>45713.862210648149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D30" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.86221064814814818</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>2.569444444444513E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>29</v>
       </c>
@@ -6233,8 +10640,30 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="1">
-        <v>45713.86478009259</v>
+      <c r="D31" s="7">
+        <v>45713</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.86478009259259259</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>2.569444444444402E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="8">
+        <f>SUM(F3:F31)</f>
+        <v>7.4050925925925881E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="6">
+        <f>AVERAGE(F3:F31)</f>
+        <v>2.5534802043422717E-3</v>
       </c>
     </row>
   </sheetData>
@@ -6243,11 +10672,1387 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28647B75-35A2-E24B-A571-8888C82690DE}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView topLeftCell="B3" zoomScale="109" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.66723006963729803</v>
+      </c>
+      <c r="C2">
+        <v>0.62019228935241699</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.52097222222222217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.66976571083068803</v>
+      </c>
+      <c r="C3">
+        <v>0.65805286169052102</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.52377314814814813</v>
+      </c>
+      <c r="F3" s="6">
+        <f>E3-E2</f>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.81972056627273504</v>
+      </c>
+      <c r="C4">
+        <v>0.74759614467620805</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.52655092592592589</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F31" si="0">E4-E3</f>
+        <v>2.7777777777777679E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.51871871948242099</v>
+      </c>
+      <c r="C5">
+        <v>0.76502406597137396</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.52935185185185185</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.39778196811675998</v>
+      </c>
+      <c r="C6">
+        <v>0.82512021064758301</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.53215277777777781</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.40720316767692499</v>
+      </c>
+      <c r="C7">
+        <v>0.80528843402862504</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.53495370370370365</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259258457E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.37344008684158297</v>
+      </c>
+      <c r="C8">
+        <v>0.82752406597137396</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.53774305555555557</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518519178E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.59694004058837802</v>
+      </c>
+      <c r="C9">
+        <v>0.70733171701431197</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.54053240740740738</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.38168111443519498</v>
+      </c>
+      <c r="C10">
+        <v>0.80288463830947798</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.5433217592592593</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518519178E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.31742793321609403</v>
+      </c>
+      <c r="C11">
+        <v>0.86298078298568703</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.5461111111111111</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.226172015070915</v>
+      </c>
+      <c r="C12">
+        <v>0.91826921701431197</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.54891203703703706</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.37128913402557301</v>
+      </c>
+      <c r="C13">
+        <v>0.83173078298568703</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.55170138888888887</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.30335772037506098</v>
+      </c>
+      <c r="C14">
+        <v>0.88581728935241699</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.55450231481481482</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.21328763663768699</v>
+      </c>
+      <c r="C15">
+        <v>0.90264421701431197</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.55729166666666663</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.14179189503192899</v>
+      </c>
+      <c r="C16">
+        <v>0.94471156597137396</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.56009259259259259</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.15136498212814301</v>
+      </c>
+      <c r="C17">
+        <v>0.90925478935241699</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.56288194444444439</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.158499360084533</v>
+      </c>
+      <c r="C18">
+        <v>0.93149036169052102</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.56568287037037035</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0.138723239302635</v>
+      </c>
+      <c r="C19">
+        <v>0.95012021064758301</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.56847222222222227</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518519178E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>8.1595242023468004E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.97055286169052102</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.57126157407407407</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0.165060684084892</v>
+      </c>
+      <c r="C21">
+        <v>0.93990385532379095</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.57406250000000003</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2.3302624002098999E-2</v>
+      </c>
+      <c r="C22">
+        <v>0.99399036169052102</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.57686342592592588</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259258457E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0.12913362681865601</v>
+      </c>
+      <c r="C23">
+        <v>0.95012021064758301</v>
+      </c>
+      <c r="D23" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.57966435185185183</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>5.1455624401569297E-2</v>
+      </c>
+      <c r="C24">
+        <v>0.98377406597137396</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.58245370370370375</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518519178E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.7950939014553999E-2</v>
+      </c>
+      <c r="C25">
+        <v>0.99459135532379095</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.5852546296296296</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259258457E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2.0998938009142799E-2</v>
+      </c>
+      <c r="C26">
+        <v>0.99459135532379095</v>
+      </c>
+      <c r="D26" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.58804398148148151</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518519178E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>1.17210540920495E-2</v>
+      </c>
+      <c r="C27">
+        <v>0.99639421701431197</v>
+      </c>
+      <c r="D27" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.59084490740740736</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259258457E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>3.7072617560624998E-3</v>
+      </c>
+      <c r="C28">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D28" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.59363425925925928</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518519178E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>3.6565617192536501E-3</v>
+      </c>
+      <c r="C29">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D29" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.59643518518518523</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8009259259259567E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1.6189216403290599E-3</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.59922453703703704</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1.06483080890029E-3</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>45714</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.60201388888888885</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>2.7893518518518068E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="8">
+        <f>SUM(F3:F31)</f>
+        <v>8.1041666666666679E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="6">
+        <f>AVERAGE(F3:F31)</f>
+        <v>2.7945402298850579E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC498385-F781-1D46-AB1B-BE94DB902872}">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.67528265714645297</v>
+      </c>
+      <c r="C2">
+        <v>0.62019228935241699</v>
+      </c>
+      <c r="D2" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0.35322916666666665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.64553087949752797</v>
+      </c>
+      <c r="C3">
+        <v>0.65805286169052102</v>
+      </c>
+      <c r="D3" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.3538310185185185</v>
+      </c>
+      <c r="F3" s="6">
+        <f>E3-E2</f>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.73851281404495195</v>
+      </c>
+      <c r="C4">
+        <v>0.65805286169052102</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.35443287037037036</v>
+      </c>
+      <c r="F4" s="6">
+        <f t="shared" ref="F4:F32" si="0">E4-E3</f>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.634502053260803</v>
+      </c>
+      <c r="C5">
+        <v>0.62019228935241699</v>
+      </c>
+      <c r="D5" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.3550462962962963</v>
+      </c>
+      <c r="F5" s="6">
+        <f t="shared" si="0"/>
+        <v>6.134259259259478E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.55755633115768399</v>
+      </c>
+      <c r="C6">
+        <v>0.70072114467620805</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.3556597222222222</v>
+      </c>
+      <c r="F6" s="6">
+        <f t="shared" si="0"/>
+        <v>6.1342592592589229E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.52301251888275102</v>
+      </c>
+      <c r="C7">
+        <v>0.77223557233810403</v>
+      </c>
+      <c r="D7" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.35626157407407405</v>
+      </c>
+      <c r="F7" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.49990636110305697</v>
+      </c>
+      <c r="C8">
+        <v>0.79026442766189497</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.3568634259259259</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.39207166433334301</v>
+      </c>
+      <c r="C9">
+        <v>0.80949521064758301</v>
+      </c>
+      <c r="D9" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.35746527777777776</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.58544731140136697</v>
+      </c>
+      <c r="C10">
+        <v>0.72896635532379095</v>
+      </c>
+      <c r="D10" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.35806712962962961</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.281953245401382</v>
+      </c>
+      <c r="C11">
+        <v>0.89543271064758301</v>
+      </c>
+      <c r="D11" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.35866898148148146</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0.22630411386489799</v>
+      </c>
+      <c r="C12">
+        <v>0.91165864467620805</v>
+      </c>
+      <c r="D12" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.35931712962962964</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="0"/>
+        <v>6.4814814814817545E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0.21715730428695601</v>
+      </c>
+      <c r="C13">
+        <v>0.91706728935241699</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.35993055555555553</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="0"/>
+        <v>6.1342592592589229E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0.144766345620155</v>
+      </c>
+      <c r="C14">
+        <v>0.94050478935241699</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.36054398148148148</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="0"/>
+        <v>6.134259259259478E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0.10837259888648899</v>
+      </c>
+      <c r="C15">
+        <v>0.95673078298568703</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.36115740740740743</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="0"/>
+        <v>6.134259259259478E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>9.2338107526302296E-2</v>
+      </c>
+      <c r="C16">
+        <v>0.96274036169052102</v>
+      </c>
+      <c r="D16" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.36175925925925928</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0.195367246866226</v>
+      </c>
+      <c r="C17">
+        <v>0.90504807233810403</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.36236111111111113</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.185785591602325</v>
+      </c>
+      <c r="C18">
+        <v>0.91947114467620805</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.36296296296296299</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>9.14600118994712E-2</v>
+      </c>
+      <c r="C19">
+        <v>0.96274036169052102</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.36359953703703701</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>6.3657407407402555E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1.6215523704886398E-2</v>
+      </c>
+      <c r="C20">
+        <v>0.99579328298568703</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0.36421296296296296</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="0"/>
+        <v>6.134259259259478E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>7.7935564331710304E-3</v>
+      </c>
+      <c r="C21">
+        <v>0.99699521064758301</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.36481481481481481</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>4.05975384637713E-3</v>
+      </c>
+      <c r="C22">
+        <v>0.99819713830947798</v>
+      </c>
+      <c r="D22" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.36541666666666667</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3.2800687476992598E-3</v>
+      </c>
+      <c r="C23">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D23" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.36601851851851852</v>
+      </c>
+      <c r="F23" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>6.9988053292035996E-3</v>
+      </c>
+      <c r="C24">
+        <v>0.99819713830947798</v>
+      </c>
+      <c r="D24" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0.36662037037037037</v>
+      </c>
+      <c r="F24" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>3.7674263585358802E-3</v>
+      </c>
+      <c r="C25">
+        <v>0.99879807233810403</v>
+      </c>
+      <c r="D25" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0.36723379629629632</v>
+      </c>
+      <c r="F25" s="6">
+        <f t="shared" si="0"/>
+        <v>6.134259259259478E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>1.11184315755963E-3</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0.36783564814814818</v>
+      </c>
+      <c r="F26" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2.17285496182739E-3</v>
+      </c>
+      <c r="C27">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D27" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0.36844907407407407</v>
+      </c>
+      <c r="F27" s="6">
+        <f t="shared" si="0"/>
+        <v>6.1342592592589229E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2.6144608855247402E-3</v>
+      </c>
+      <c r="C28">
+        <v>0.99879807233810403</v>
+      </c>
+      <c r="D28" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0.36905092592592592</v>
+      </c>
+      <c r="F28" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1.9773428793996499E-3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.36965277777777777</v>
+      </c>
+      <c r="F29" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>4.8216967843472898E-4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.37025462962962963</v>
+      </c>
+      <c r="F30" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>3.4383774618618098E-4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>45715</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.37085648148148148</v>
+      </c>
+      <c r="F31" s="6">
+        <f t="shared" si="0"/>
+        <v>6.0185185185185341E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="8">
+        <f>SUM(F3:F31)</f>
+        <v>1.7627314814814832E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="6">
+        <f>AVERAGE(F3:F31)</f>
+        <v>6.0783844189016658E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09D310A-246D-4083-977F-09A8253E80CF}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>

--- a/Abgabe/Model Doku Master.xlsx
+++ b/Abgabe/Model Doku Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasbraig/Documents/VSCode/Bildverarbeitung_Vorlesung/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6588EC62-AED0-D64C-9B46-048EA3E6D7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D92ED-48C1-084C-939C-D6FFC7826901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22380" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35180" windowHeight="27180" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,15 @@
     <sheet name="30_aug_100px" sheetId="4" r:id="rId5"/>
     <sheet name="40_aug_4Layer_100px" sheetId="6" r:id="rId6"/>
     <sheet name="60 Epochen" sheetId="2" r:id="rId7"/>
+    <sheet name="model90" sheetId="8" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v2.0" hidden="1">Overview!$A$2:$A$6</definedName>
+    <definedName name="_xlchart.v2.1" hidden="1">Overview!$B$1</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Overview!$B$2:$B$6</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Overview!$C$1</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Overview!$C$2:$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="85">
   <si>
     <t>epoch</t>
   </si>
@@ -272,9 +280,6 @@
     <t>Modellgröße</t>
   </si>
   <si>
-    <t>modell30_AUG_100px</t>
-  </si>
-  <si>
     <t>model40_AUG_4Layer_100px_ES</t>
   </si>
   <si>
@@ -295,17 +300,27 @@
   <si>
     <t>timestamp_date</t>
   </si>
+  <si>
+    <t>model30_AUG_100px</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#\ &quot;MB&quot;"/>
+    <numFmt numFmtId="164" formatCode="#\ &quot;MB&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -743,69 +758,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -840,6 +860,7 @@
     <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="42" xr:uid="{45CC9955-890A-7A43-9605-30DCC2F4F834}"/>
     <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -882,7 +903,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -913,6 +934,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$A$2:$A$6</c:f>
@@ -928,7 +1006,7 @@
                   <c:v>model30_3Layer_100px</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>modell30_AUG_100px</c:v>
+                  <c:v>model30_AUG_100px</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>model40_AUG_4Layer_100px_ES</c:v>
@@ -940,18 +1018,21 @@
             <c:numRef>
               <c:f>Overview!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="h:mm:ss">
+                <c:pt idx="0">
                   <c:v>2.6313997821350772E-3</c:v>
                 </c:pt>
-                <c:pt idx="2" formatCode="h:mm:ss">
+                <c:pt idx="1">
+                  <c:v>3.01498127340824E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.7945402298850579E-3</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="h:mm:ss">
+                <c:pt idx="3">
                   <c:v>2.5534802043422717E-3</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="h:mm:ss">
+                <c:pt idx="4">
                   <c:v>6.0783844189016658E-4</c:v>
                 </c:pt>
               </c:numCache>
@@ -963,6 +1044,22 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="300"/>
+        <c:axId val="1517849776"/>
+        <c:axId val="1942616064"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -987,6 +1084,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Overview!$A$2:$A$6</c:f>
@@ -1002,7 +1156,7 @@
                   <c:v>model30_3Layer_100px</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>modell30_AUG_100px</c:v>
+                  <c:v>model30_AUG_100px</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>model40_AUG_4Layer_100px_ES</c:v>
@@ -1016,14 +1170,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="0%">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="0%">
-                  <c:v>0.92</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="0%">
-                  <c:v>0.94</c:v>
+                <c:pt idx="0">
+                  <c:v>92.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.98</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,145 +1191,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000F-C013-4F4D-A81C-5D8C04E05ECE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Overview!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Gesamttrainingszeit</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>model35_3Layer_70px</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>model90_3Layer_70px</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>model30_3Layer_100px</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>modell30_AUG_100px</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>model40_AUG_4Layer_100px_ES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Overview!$D$2:$D$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0" formatCode="h:mm:ss">
-                  <c:v>8.9467592592592626E-2</c:v>
-                </c:pt>
-                <c:pt idx="2" formatCode="[h]:mm:ss">
-                  <c:v>7.4050925925925881E-2</c:v>
-                </c:pt>
-                <c:pt idx="3" formatCode="h:mm:ss">
-                  <c:v>8.1041666666666679E-2</c:v>
-                </c:pt>
-                <c:pt idx="4" formatCode="h:mm:ss">
-                  <c:v>1.7627314814814832E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-C013-4F4D-A81C-5D8C04E05ECE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Overview!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Modellgröße</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Overview!$A$2:$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>model35_3Layer_70px</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>model90_3Layer_70px</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>model30_3Layer_100px</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>modell30_AUG_100px</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>model40_AUG_4Layer_100px_ES</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Overview!$E$2:$E$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="4" formatCode="#\ &quot;MB&quot;">
-                  <c:v>950</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-C013-4F4D-A81C-5D8C04E05ECE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1181,10 +1202,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1517849776"/>
-        <c:axId val="1942616064"/>
+        <c:gapWidth val="500"/>
+        <c:overlap val="31"/>
+        <c:axId val="206521311"/>
+        <c:axId val="301532943"/>
       </c:barChart>
       <c:catAx>
         <c:axId val="1517849776"/>
@@ -1193,6 +1214,36 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1258,8 +1309,52 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1293,6 +1388,65 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="301532943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="206521311"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="206521311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="301532943"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1301,6 +1455,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -8413,16 +8598,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>33717</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>738841</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>145775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>101149</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>504264</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>177426</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8983,7 +9168,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9013,75 +9198,102 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="C2" s="6">
+        <v>80</v>
+      </c>
+      <c r="B2">
+        <v>92.75</v>
+      </c>
+      <c r="C2" s="5">
         <f>'35_70px'!F41</f>
         <v>2.6313997821350772E-3</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f>'35_70px'!F40</f>
         <v>8.9467592592592626E-2</v>
       </c>
+      <c r="E2" s="8">
+        <v>1780</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>90.47</v>
+      </c>
+      <c r="C3" s="5">
+        <f>model90!G95</f>
+        <v>3.01498127340824E-3</v>
+      </c>
+      <c r="D3" s="7">
+        <f>model90!G94</f>
+        <v>0.26833333333333337</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1780</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.92</v>
-      </c>
-      <c r="C4" s="6">
+        <v>82</v>
+      </c>
+      <c r="B4">
+        <v>92.98</v>
+      </c>
+      <c r="C4" s="5">
         <f>'30_aug_100px'!F35</f>
         <v>2.7945402298850579E-3</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>'30_100px'!F34</f>
         <v>7.4050925925925881E-2</v>
       </c>
+      <c r="E4" s="8">
+        <v>3793</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="6">
+        <v>84</v>
+      </c>
+      <c r="B5">
+        <v>91.22</v>
+      </c>
+      <c r="C5" s="5">
         <f>'30_100px'!F35</f>
         <v>2.5534802043422717E-3</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>'30_aug_100px'!F34</f>
         <v>8.1041666666666679E-2</v>
       </c>
+      <c r="E5" s="8">
+        <v>3793</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="9">
-        <v>0.94</v>
-      </c>
-      <c r="C6" s="6">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>94</v>
+      </c>
+      <c r="C6" s="5">
         <f>'40_aug_4Layer_100px'!F35</f>
         <v>6.0783844189016658E-4</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f>'40_aug_4Layer_100px'!F34</f>
         <v>1.7627314814814832E-2</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>950</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -9102,12 +9314,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -9247,10 +9459,10 @@
       <c r="C2">
         <v>0.64640343189239502</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>45711</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.59620370370370368</v>
       </c>
     </row>
@@ -9264,13 +9476,13 @@
       <c r="C3">
         <v>0.64756840467453003</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>45711</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.5988310185185185</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F4" si="0">E3-E2</f>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9285,13 +9497,13 @@
       <c r="C4">
         <v>0.64523857831954901</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>45711</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.60146990740740736</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9306,13 +9518,13 @@
       <c r="C5">
         <v>0.664561808109283</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>45711</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.60409722222222217</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>E5-E4</f>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9327,13 +9539,13 @@
       <c r="C6">
         <v>0.72210609912872303</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>45711</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.60672453703703699</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" ref="F6:F36" si="1">E6-E5</f>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9348,13 +9560,13 @@
       <c r="C7">
         <v>0.73639976978302002</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>45711</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.60936342592592596</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888889683E-3</v>
       </c>
@@ -9369,13 +9581,13 @@
       <c r="C8">
         <v>0.70537173748016302</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>45711</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.61199074074074078</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9390,13 +9602,13 @@
       <c r="C9">
         <v>0.80447483062744096</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>45711</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.6146180555555556</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9411,13 +9623,13 @@
       <c r="C10">
         <v>0.83424556255340498</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>45711</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.61724537037037042</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9432,13 +9644,13 @@
       <c r="C11">
         <v>0.859485924243927</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>45711</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.61987268518518523</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9453,13 +9665,13 @@
       <c r="C12">
         <v>0.86622595787048295</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>45711</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.62250000000000005</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9474,13 +9686,13 @@
       <c r="C13">
         <v>0.86498701572418202</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>45711</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.62513888888888891</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9495,13 +9707,13 @@
       <c r="C14">
         <v>0.89428621530532804</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>45711</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.62776620370370373</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9516,13 +9728,13 @@
       <c r="C15">
         <v>0.92621111869812001</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>45711</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.63039351851851855</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9537,13 +9749,13 @@
       <c r="C16">
         <v>0.95796966552734297</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>45711</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.6330324074074074</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9558,13 +9770,13 @@
       <c r="C17">
         <v>0.89978730678558305</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>45711</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.63565972222222222</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9579,13 +9791,13 @@
       <c r="C18">
         <v>0.92561018466949396</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>45711</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.63828703703703704</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9600,13 +9812,13 @@
       <c r="C19">
         <v>0.96215790510177601</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>45711</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.64091435185185186</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9621,13 +9833,13 @@
       <c r="C20">
         <v>0.97720044851303101</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>45711</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.64355324074074072</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9642,13 +9854,13 @@
       <c r="C21">
         <v>0.98737978935241699</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>45711</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.64618055555555554</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9663,13 +9875,13 @@
       <c r="C22">
         <v>0.99098557233810403</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>45711</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.64881944444444439</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9684,13 +9896,13 @@
       <c r="C23">
         <v>0.99098557233810403</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>45711</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.65145833333333336</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888889683E-3</v>
       </c>
@@ -9705,13 +9917,13 @@
       <c r="C24">
         <v>0.99581176042556696</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>45711</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.65409722222222222</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9726,13 +9938,13 @@
       <c r="C25">
         <v>0.99881654977798395</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>45711</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.65673611111111108</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9747,13 +9959,13 @@
       <c r="C26">
         <v>0.99819713830947798</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>45711</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>0.65936342592592589</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9768,13 +9980,13 @@
       <c r="C27">
         <v>0.99699521064758301</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>45711</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.66200231481481486</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888889683E-3</v>
       </c>
@@ -9789,13 +10001,13 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>45711</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>0.66462962962962968</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9810,13 +10022,13 @@
       <c r="C29">
         <v>0.99759614467620805</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>45711</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>0.66726851851851854</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9831,13 +10043,13 @@
       <c r="C30">
         <v>0.98737978935241699</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>45711</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>0.66989583333333336</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9852,13 +10064,13 @@
       <c r="C31">
         <v>0.97840237617492598</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>45711</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>0.67252314814814818</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9873,13 +10085,13 @@
       <c r="C32">
         <v>0.99160504341125399</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="6">
         <v>45711</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>0.67516203703703703</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
         <v>2.6388888888888573E-3</v>
       </c>
@@ -9894,13 +10106,13 @@
       <c r="C33">
         <v>0.99338942766189497</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="6">
         <v>45711</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>0.67778935185185185</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9915,13 +10127,13 @@
       <c r="C34">
         <v>0.99338942766189497</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="6">
         <v>45711</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>0.68041666666666667</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9936,13 +10148,13 @@
       <c r="C35">
         <v>0.99459135532379095</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="6">
         <v>45711</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>0.68304398148148149</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
@@ -9957,25 +10169,25 @@
       <c r="C36">
         <v>0.99699521064758301</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="6">
         <v>45711</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>0.68567129629629631</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <f t="shared" si="1"/>
         <v>2.6273148148148184E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F40" s="8">
+      <c r="F40" s="7">
         <f>SUM(F3:F36)</f>
         <v>8.9467592592592626E-2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <f>AVERAGE(F3:F36)</f>
         <v>2.6313997821350772E-3</v>
       </c>
@@ -10000,7 +10212,7 @@
     <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
@@ -10015,8 +10227,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>84</v>
+      <c r="D1" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -10035,10 +10247,10 @@
       <c r="C2">
         <v>0.65805286169052102</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>45713</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.79072916666666671</v>
       </c>
     </row>
@@ -10052,13 +10264,13 @@
       <c r="C3">
         <v>0.65805286169052102</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>45713</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.79327546296296292</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>E3-E2</f>
         <v>2.5462962962962132E-3</v>
       </c>
@@ -10073,13 +10285,13 @@
       <c r="C4">
         <v>0.69471156597137396</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>45713</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.79582175925925924</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F31" si="0">E4-E3</f>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10094,13 +10306,13 @@
       <c r="C5">
         <v>0.76141828298568703</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>45713</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.79837962962962961</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10115,13 +10327,13 @@
       <c r="C6">
         <v>0.81670671701431197</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>45713</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.80092592592592593</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10136,13 +10348,13 @@
       <c r="C7">
         <v>0.84735578298568703</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>45713</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.80348379629629629</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10157,13 +10369,13 @@
       <c r="C8">
         <v>0.84435093402862504</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>45713</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.80603009259259262</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10178,13 +10390,13 @@
       <c r="C9">
         <v>0.8828125</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>45713</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.80857638888888894</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10199,13 +10411,13 @@
       <c r="C10">
         <v>0.85516828298568703</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>45713</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.8111342592592593</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10220,13 +10432,13 @@
       <c r="C11">
         <v>0.87079328298568703</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>45713</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.81368055555555552</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962962132E-3</v>
       </c>
@@ -10241,13 +10453,13 @@
       <c r="C12">
         <v>0.48497596383094699</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>45713</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.81622685185185184</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10262,13 +10474,13 @@
       <c r="C13">
         <v>0.87079328298568703</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>45713</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.81877314814814817</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10283,13 +10495,13 @@
       <c r="C14">
         <v>0.91165864467620805</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>45713</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.82131944444444449</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10304,13 +10516,13 @@
       <c r="C15">
         <v>0.84134614467620805</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>45713</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.82387731481481485</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10325,13 +10537,13 @@
       <c r="C16">
         <v>0.93629807233810403</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>45713</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.82642361111111107</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962962132E-3</v>
       </c>
@@ -10346,13 +10558,13 @@
       <c r="C17">
         <v>0.93629807233810403</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>45713</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.82898148148148143</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10367,13 +10579,13 @@
       <c r="C18">
         <v>0.95192307233810403</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>45713</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.83152777777777775</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10388,13 +10600,13 @@
       <c r="C19">
         <v>0.97836536169052102</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>45713</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.83407407407407408</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10409,13 +10621,13 @@
       <c r="C20">
         <v>0.95372593402862504</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>45713</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.83663194444444444</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10430,13 +10642,13 @@
       <c r="C21">
         <v>0.98858171701431197</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>45713</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.83917824074074077</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10451,13 +10663,13 @@
       <c r="C22">
         <v>0.97836536169052102</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>45713</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.84172453703703709</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962963243E-3</v>
       </c>
@@ -10472,13 +10684,13 @@
       <c r="C23">
         <v>0.95192307233810403</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>45713</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.84428240740740745</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10493,13 +10705,13 @@
       <c r="C24">
         <v>0.97115385532379095</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>45713</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.84682870370370367</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>2.5462962962962132E-3</v>
       </c>
@@ -10514,13 +10726,13 @@
       <c r="C25">
         <v>0.98557692766189497</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>45713</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.84938657407407403</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10535,13 +10747,13 @@
       <c r="C26">
         <v>0.99459135532379095</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>45713</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>0.85195601851851854</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>2.569444444444513E-3</v>
       </c>
@@ -10556,13 +10768,13 @@
       <c r="C27">
         <v>0.99639421701431197</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>45713</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.85451388888888891</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10577,13 +10789,13 @@
       <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>45713</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>0.85708333333333331</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>2.569444444444402E-3</v>
       </c>
@@ -10598,13 +10810,13 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>45713</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>0.85964120370370367</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>2.5578703703703631E-3</v>
       </c>
@@ -10619,13 +10831,13 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>45713</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>0.86221064814814818</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>2.569444444444513E-3</v>
       </c>
@@ -10640,28 +10852,28 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>45713</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>0.86478009259259259</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>2.569444444444402E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <f>SUM(F3:F31)</f>
         <v>7.4050925925925881E-2</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f>AVERAGE(F3:F31)</f>
         <v>2.5534802043422717E-3</v>
       </c>
@@ -10685,7 +10897,7 @@
     <col min="1" max="1" width="6.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
@@ -10700,8 +10912,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>84</v>
+      <c r="D1" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -10720,10 +10932,10 @@
       <c r="C2">
         <v>0.62019228935241699</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>45714</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.52097222222222217</v>
       </c>
     </row>
@@ -10737,13 +10949,13 @@
       <c r="C3">
         <v>0.65805286169052102</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>45714</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.52377314814814813</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>E3-E2</f>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -10758,13 +10970,13 @@
       <c r="C4">
         <v>0.74759614467620805</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>45714</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.52655092592592589</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" ref="F4:F31" si="0">E4-E3</f>
         <v>2.7777777777777679E-3</v>
       </c>
@@ -10779,13 +10991,13 @@
       <c r="C5">
         <v>0.76502406597137396</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>45714</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.52935185185185185</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -10800,13 +11012,13 @@
       <c r="C6">
         <v>0.82512021064758301</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>45714</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.53215277777777781</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -10821,13 +11033,13 @@
       <c r="C7">
         <v>0.80528843402862504</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>45714</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.53495370370370365</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259258457E-3</v>
       </c>
@@ -10842,13 +11054,13 @@
       <c r="C8">
         <v>0.82752406597137396</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>45714</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.53774305555555557</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518519178E-3</v>
       </c>
@@ -10863,13 +11075,13 @@
       <c r="C9">
         <v>0.70733171701431197</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>45714</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.54053240740740738</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
@@ -10884,13 +11096,13 @@
       <c r="C10">
         <v>0.80288463830947798</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>45714</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.5433217592592593</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518519178E-3</v>
       </c>
@@ -10905,13 +11117,13 @@
       <c r="C11">
         <v>0.86298078298568703</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>45714</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.5461111111111111</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
@@ -10926,13 +11138,13 @@
       <c r="C12">
         <v>0.91826921701431197</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>45714</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.54891203703703706</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -10947,13 +11159,13 @@
       <c r="C13">
         <v>0.83173078298568703</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>45714</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.55170138888888887</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
@@ -10968,13 +11180,13 @@
       <c r="C14">
         <v>0.88581728935241699</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>45714</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.55450231481481482</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -10989,13 +11201,13 @@
       <c r="C15">
         <v>0.90264421701431197</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>45714</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.55729166666666663</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
@@ -11010,13 +11222,13 @@
       <c r="C16">
         <v>0.94471156597137396</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>45714</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.56009259259259259</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -11031,13 +11243,13 @@
       <c r="C17">
         <v>0.90925478935241699</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>45714</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.56288194444444439</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
@@ -11052,13 +11264,13 @@
       <c r="C18">
         <v>0.93149036169052102</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>45714</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.56568287037037035</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -11073,13 +11285,13 @@
       <c r="C19">
         <v>0.95012021064758301</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>45714</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.56847222222222227</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518519178E-3</v>
       </c>
@@ -11094,13 +11306,13 @@
       <c r="C20">
         <v>0.97055286169052102</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>45714</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.57126157407407407</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
@@ -11115,13 +11327,13 @@
       <c r="C21">
         <v>0.93990385532379095</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>45714</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.57406250000000003</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -11136,13 +11348,13 @@
       <c r="C22">
         <v>0.99399036169052102</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>45714</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.57686342592592588</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259258457E-3</v>
       </c>
@@ -11157,13 +11369,13 @@
       <c r="C23">
         <v>0.95012021064758301</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>45714</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.57966435185185183</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -11178,13 +11390,13 @@
       <c r="C24">
         <v>0.98377406597137396</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>45714</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.58245370370370375</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518519178E-3</v>
       </c>
@@ -11199,13 +11411,13 @@
       <c r="C25">
         <v>0.99459135532379095</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>45714</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.5852546296296296</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259258457E-3</v>
       </c>
@@ -11220,13 +11432,13 @@
       <c r="C26">
         <v>0.99459135532379095</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>45714</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>0.58804398148148151</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518519178E-3</v>
       </c>
@@ -11241,13 +11453,13 @@
       <c r="C27">
         <v>0.99639421701431197</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>45714</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.59084490740740736</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259258457E-3</v>
       </c>
@@ -11262,13 +11474,13 @@
       <c r="C28">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>45714</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>0.59363425925925928</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518519178E-3</v>
       </c>
@@ -11283,13 +11495,13 @@
       <c r="C29">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>45714</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>0.59643518518518523</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>2.8009259259259567E-3</v>
       </c>
@@ -11304,13 +11516,13 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>45714</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>0.59922453703703704</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
@@ -11325,28 +11537,28 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>45714</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>0.60201388888888885</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>2.7893518518518068E-3</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="34" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F34" s="8">
+      <c r="F34" s="7">
         <f>SUM(F3:F31)</f>
         <v>8.1041666666666679E-2</v>
       </c>
     </row>
     <row r="35" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f>AVERAGE(F3:F31)</f>
         <v>2.7945402298850579E-3</v>
       </c>
@@ -11362,7 +11574,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11405,10 +11617,10 @@
       <c r="C2">
         <v>0.62019228935241699</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="6">
         <v>45715</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.35322916666666665</v>
       </c>
     </row>
@@ -11422,13 +11634,13 @@
       <c r="C3">
         <v>0.65805286169052102</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>45715</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>0.3538310185185185</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>E3-E2</f>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11443,14 +11655,14 @@
       <c r="C4">
         <v>0.65805286169052102</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>45715</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>0.35443287037037036</v>
       </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F32" si="0">E4-E3</f>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F31" si="0">E4-E3</f>
         <v>6.0185185185185341E-4</v>
       </c>
     </row>
@@ -11464,13 +11676,13 @@
       <c r="C5">
         <v>0.62019228935241699</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>45715</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>0.3550462962962963</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>6.134259259259478E-4</v>
       </c>
@@ -11485,13 +11697,13 @@
       <c r="C6">
         <v>0.70072114467620805</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="6">
         <v>45715</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>0.3556597222222222</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>6.1342592592589229E-4</v>
       </c>
@@ -11506,13 +11718,13 @@
       <c r="C7">
         <v>0.77223557233810403</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="6">
         <v>45715</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>0.35626157407407405</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11527,13 +11739,13 @@
       <c r="C8">
         <v>0.79026442766189497</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="6">
         <v>45715</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>0.3568634259259259</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11548,13 +11760,13 @@
       <c r="C9">
         <v>0.80949521064758301</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>45715</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>0.35746527777777776</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11569,13 +11781,13 @@
       <c r="C10">
         <v>0.72896635532379095</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>45715</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.35806712962962961</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11590,13 +11802,13 @@
       <c r="C11">
         <v>0.89543271064758301</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>45715</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>0.35866898148148146</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11611,13 +11823,13 @@
       <c r="C12">
         <v>0.91165864467620805</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>45715</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>0.35931712962962964</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>6.4814814814817545E-4</v>
       </c>
@@ -11632,13 +11844,13 @@
       <c r="C13">
         <v>0.91706728935241699</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>45715</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>0.35993055555555553</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>6.1342592592589229E-4</v>
       </c>
@@ -11653,13 +11865,13 @@
       <c r="C14">
         <v>0.94050478935241699</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>45715</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>0.36054398148148148</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>6.134259259259478E-4</v>
       </c>
@@ -11674,13 +11886,13 @@
       <c r="C15">
         <v>0.95673078298568703</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>45715</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>0.36115740740740743</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>6.134259259259478E-4</v>
       </c>
@@ -11695,13 +11907,13 @@
       <c r="C16">
         <v>0.96274036169052102</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>45715</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>0.36175925925925928</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11716,13 +11928,13 @@
       <c r="C17">
         <v>0.90504807233810403</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>45715</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>0.36236111111111113</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11737,13 +11949,13 @@
       <c r="C18">
         <v>0.91947114467620805</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>45715</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>0.36296296296296299</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11758,13 +11970,13 @@
       <c r="C19">
         <v>0.96274036169052102</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>45715</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>0.36359953703703701</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>6.3657407407402555E-4</v>
       </c>
@@ -11779,13 +11991,13 @@
       <c r="C20">
         <v>0.99579328298568703</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>45715</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>0.36421296296296296</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>6.134259259259478E-4</v>
       </c>
@@ -11800,13 +12012,13 @@
       <c r="C21">
         <v>0.99699521064758301</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>45715</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>0.36481481481481481</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11821,13 +12033,13 @@
       <c r="C22">
         <v>0.99819713830947798</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>45715</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>0.36541666666666667</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11842,13 +12054,13 @@
       <c r="C23">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>45715</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>0.36601851851851852</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11863,13 +12075,13 @@
       <c r="C24">
         <v>0.99819713830947798</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>45715</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>0.36662037037037037</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11884,13 +12096,13 @@
       <c r="C25">
         <v>0.99879807233810403</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>45715</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>0.36723379629629632</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>6.134259259259478E-4</v>
       </c>
@@ -11905,13 +12117,13 @@
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="6">
         <v>45715</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>0.36783564814814818</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11926,13 +12138,13 @@
       <c r="C27">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="6">
         <v>45715</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>0.36844907407407407</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>6.1342592592589229E-4</v>
       </c>
@@ -11947,13 +12159,13 @@
       <c r="C28">
         <v>0.99879807233810403</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="6">
         <v>45715</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>0.36905092592592592</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11968,13 +12180,13 @@
       <c r="C29">
         <v>1</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="6">
         <v>45715</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>0.36965277777777777</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -11989,13 +12201,13 @@
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="6">
         <v>45715</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>0.37025462962962963</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
@@ -12010,34 +12222,34 @@
       <c r="C31">
         <v>1</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="6">
         <v>45715</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>0.37085648148148148</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>6.0185185185185341E-4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F32" s="6"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" s="8">
+        <v>78</v>
+      </c>
+      <c r="F34" s="7">
         <f>SUM(F3:F31)</f>
         <v>1.7627314814814832E-2</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E35" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="6">
+        <v>79</v>
+      </c>
+      <c r="F35" s="5">
         <f>AVERAGE(F3:F31)</f>
         <v>6.0783844189016658E-4</v>
       </c>
@@ -12052,8 +12264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09D310A-246D-4083-977F-09A8253E80CF}">
   <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12922,4 +13134,1939 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B0012E-F26B-B344-9BD6-8CA9155F2C5C}">
+  <dimension ref="A1:G95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>0</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0.653595089912414</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.644656121730804</v>
+      </c>
+      <c r="D2" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.30657407407407405</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0.60180276632308904</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.690837621688842</v>
+      </c>
+      <c r="D3" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0.30950231481481483</v>
+      </c>
+      <c r="G3" s="13">
+        <f>E3-E2</f>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11">
+        <v>0.57095140218734697</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.72028475999832098</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.31243055555555554</v>
+      </c>
+      <c r="G4" s="13">
+        <f t="shared" ref="G4:G67" si="0">E4-E3</f>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.56051188707351596</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.71498709917068404</v>
+      </c>
+      <c r="D5" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.31535879629629632</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>4</v>
+      </c>
+      <c r="B6" s="11">
+        <v>0.52893835306167603</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.74259436130523604</v>
+      </c>
+      <c r="D6" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.31828703703703703</v>
+      </c>
+      <c r="G6" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0.48840641975402799</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.76719671487808205</v>
+      </c>
+      <c r="D7" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.32121527777777775</v>
+      </c>
+      <c r="G7" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>6</v>
+      </c>
+      <c r="B8" s="11">
+        <v>0.43280255794525102</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.81758505105972201</v>
+      </c>
+      <c r="D8" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.32414351851851853</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>7</v>
+      </c>
+      <c r="B9" s="11">
+        <v>0.335306286811828</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.85409575700759799</v>
+      </c>
+      <c r="D9" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.3270601851851852</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="11">
+        <v>0.293047875165939</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.87576735019683805</v>
+      </c>
+      <c r="D10" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.33</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11">
+        <v>0.30572625994682301</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.86615192890167203</v>
+      </c>
+      <c r="D11" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.33291666666666669</v>
+      </c>
+      <c r="G11" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11">
+        <v>0.26660200953483498</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.88842451572418202</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.33584490740740741</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>11</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.292032390832901</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.87991863489151001</v>
+      </c>
+      <c r="D13" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.33877314814814813</v>
+      </c>
+      <c r="G13" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="11">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.250749051570892</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.88962644338607699</v>
+      </c>
+      <c r="D14" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0.3417013888888889</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.15981958806514701</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.93751847743988004</v>
+      </c>
+      <c r="D15" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0.34462962962962962</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="11">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.13520781695842701</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.94593197107314997</v>
+      </c>
+      <c r="D16" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0.34756944444444443</v>
+      </c>
+      <c r="G16" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="11">
+        <v>0.139663681387901</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.945367932319641</v>
+      </c>
+      <c r="D17" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0.3504976851851852</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="11">
+        <v>16</v>
+      </c>
+      <c r="B18" s="11">
+        <v>0.100849889218807</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.96578216552734297</v>
+      </c>
+      <c r="D18" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0.35342592592592592</v>
+      </c>
+      <c r="G18" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="11">
+        <v>6.6582910716533605E-2</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.97778290510177601</v>
+      </c>
+      <c r="D19" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.35635416666666669</v>
+      </c>
+      <c r="G19" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="11">
+        <v>18</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.19115012884140001</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.93036240339279097</v>
+      </c>
+      <c r="D20" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0.35928240740740741</v>
+      </c>
+      <c r="G20" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="11">
+        <v>19</v>
+      </c>
+      <c r="B21" s="11">
+        <v>9.8709613084792994E-2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.96159392595291104</v>
+      </c>
+      <c r="D21" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0.36222222222222222</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11">
+        <v>3.3997856080531998E-2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.98863720893859797</v>
+      </c>
+      <c r="D22" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0.3651388888888889</v>
+      </c>
+      <c r="G22" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="11">
+        <v>21</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1.6894316300749699E-2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.99639421701431197</v>
+      </c>
+      <c r="D23" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0.36806712962962962</v>
+      </c>
+      <c r="G23" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="11">
+        <v>22</v>
+      </c>
+      <c r="B24" s="11">
+        <v>9.5012923702597601E-3</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D24" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0.37099537037037039</v>
+      </c>
+      <c r="G24" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="11">
+        <v>23</v>
+      </c>
+      <c r="B25" s="11">
+        <v>5.0766649655997701E-3</v>
+      </c>
+      <c r="C25" s="11">
+        <v>1</v>
+      </c>
+      <c r="D25" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0.3739351851851852</v>
+      </c>
+      <c r="G25" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="11">
+        <v>24</v>
+      </c>
+      <c r="B26" s="11">
+        <v>9.1186827048659307E-3</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.99699521064758301</v>
+      </c>
+      <c r="D26" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0.37686342592592592</v>
+      </c>
+      <c r="G26" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="11">
+        <v>25</v>
+      </c>
+      <c r="B27" s="11">
+        <v>1.14507870748639E-2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.99579328298568703</v>
+      </c>
+      <c r="D27" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.3797800925925926</v>
+      </c>
+      <c r="G27" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="11">
+        <v>26</v>
+      </c>
+      <c r="B28" s="11">
+        <v>3.7320446223020498E-2</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.98677885532379095</v>
+      </c>
+      <c r="D28" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0.38288194444444446</v>
+      </c>
+      <c r="G28" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1018518518518556E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="11">
+        <v>27</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1.44210970029234E-2</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.99579328298568703</v>
+      </c>
+      <c r="D29" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0.38581018518518517</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="11">
+        <v>28</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2.2964600939303602E-3</v>
+      </c>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0.38874999999999998</v>
+      </c>
+      <c r="G30" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="11">
+        <v>1.06399180367589E-3</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0.39167824074074076</v>
+      </c>
+      <c r="G31" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="11">
+        <v>30</v>
+      </c>
+      <c r="B32" s="11">
+        <v>9.1404430568218197E-3</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.99579328298568703</v>
+      </c>
+      <c r="D32" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0.39460648148148147</v>
+      </c>
+      <c r="G32" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="11">
+        <v>31</v>
+      </c>
+      <c r="B33" s="11">
+        <v>6.4988718368112998E-3</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.99759614467620805</v>
+      </c>
+      <c r="D33" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0.39752314814814815</v>
+      </c>
+      <c r="G33" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="11">
+        <v>8.2086734473705195E-2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.97115385532379095</v>
+      </c>
+      <c r="D34" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0.40046296296296297</v>
+      </c>
+      <c r="G34" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="11">
+        <v>33</v>
+      </c>
+      <c r="B35" s="11">
+        <v>6.8978825584053898E-3</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.99879807233810403</v>
+      </c>
+      <c r="D35" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0.40337962962962964</v>
+      </c>
+      <c r="G35" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="11">
+        <v>34</v>
+      </c>
+      <c r="B36" s="11">
+        <v>4.3545113876461896E-3</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.99879807233810403</v>
+      </c>
+      <c r="D36" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0.40630787037037036</v>
+      </c>
+      <c r="G36" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="11">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11">
+        <v>4.6032802201807499E-3</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.99701368808746305</v>
+      </c>
+      <c r="D37" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0.40923611111111113</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="11">
+        <v>36</v>
+      </c>
+      <c r="B38" s="11">
+        <v>1.89671327825635E-3</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D38" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0.41230324074074076</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="0"/>
+        <v>3.067129629629628E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="11">
+        <v>37</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2.9471772722899901E-3</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D39" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0.41543981481481479</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1365740740740278E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="11">
+        <v>38</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2.21674781641922E-4</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0.41863425925925923</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1944444444444442E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="11">
+        <v>39</v>
+      </c>
+      <c r="B41" s="11">
+        <v>5.0897044129669597E-3</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.99879807233810403</v>
+      </c>
+      <c r="D41" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E41" s="13">
+        <v>0.42171296296296296</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="0"/>
+        <v>3.0787037037037224E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="11">
+        <v>40</v>
+      </c>
+      <c r="B42" s="11">
+        <v>4.8513920046389103E-3</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.99879807233810403</v>
+      </c>
+      <c r="D42" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E42" s="13">
+        <v>0.4246875</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9745370370370394E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2.5055955629795699E-3</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D43" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E43" s="13">
+        <v>0.42787037037037035</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1828703703703498E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="11">
+        <v>42</v>
+      </c>
+      <c r="B44" s="11">
+        <v>1.80919060949236E-3</v>
+      </c>
+      <c r="C44" s="11">
+        <v>1</v>
+      </c>
+      <c r="D44" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0.43113425925925924</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" si="0"/>
+        <v>3.2638888888888995E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="11">
+        <v>43</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2.8605788247659802E-4</v>
+      </c>
+      <c r="C45" s="11">
+        <v>1</v>
+      </c>
+      <c r="D45" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E45" s="13">
+        <v>0.43427083333333333</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1365740740740833E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="11">
+        <v>44</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1.8644806696101999E-3</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.99939906597137396</v>
+      </c>
+      <c r="D46" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E46" s="13">
+        <v>0.43731481481481482</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="0"/>
+        <v>3.0439814814814947E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="11">
+        <v>45</v>
+      </c>
+      <c r="B47" s="11">
+        <v>1.58238093717955E-4</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E47" s="13">
+        <v>0.44035879629629632</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="0"/>
+        <v>3.0439814814814947E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="11">
+        <v>46</v>
+      </c>
+      <c r="B48" s="14">
+        <v>473819527542.21802</v>
+      </c>
+      <c r="C48" s="11">
+        <v>1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E48" s="13">
+        <v>0.44339120370370372</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="0"/>
+        <v>3.0324074074074003E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="11">
+        <v>47</v>
+      </c>
+      <c r="B49" s="11">
+        <v>1.35879294248297E-4</v>
+      </c>
+      <c r="C49" s="11">
+        <v>1</v>
+      </c>
+      <c r="D49" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E49" s="13">
+        <v>0.44636574074074076</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9745370370370394E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="14">
+        <v>225463190872.68701</v>
+      </c>
+      <c r="C50" s="11">
+        <v>1</v>
+      </c>
+      <c r="D50" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E50" s="13">
+        <v>0.44930555555555557</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="11">
+        <v>49</v>
+      </c>
+      <c r="B51" s="14">
+        <v>145356616485.51401</v>
+      </c>
+      <c r="C51" s="11">
+        <v>1</v>
+      </c>
+      <c r="D51" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E51" s="13">
+        <v>0.45222222222222225</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="11">
+        <v>50</v>
+      </c>
+      <c r="B52" s="14">
+        <v>113563664854.15401</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E52" s="13">
+        <v>0.45515046296296297</v>
+      </c>
+      <c r="G52" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="11">
+        <v>51</v>
+      </c>
+      <c r="B53" s="14">
+        <v>9784016583.5805206</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E53" s="13">
+        <v>0.45807870370370368</v>
+      </c>
+      <c r="G53" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="11">
+        <v>52</v>
+      </c>
+      <c r="B54" s="14">
+        <v>7648681275.8957901</v>
+      </c>
+      <c r="C54" s="11">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E54" s="13">
+        <v>0.46101851851851849</v>
+      </c>
+      <c r="G54" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="11">
+        <v>53</v>
+      </c>
+      <c r="B55" s="14">
+        <v>6602242592.63486</v>
+      </c>
+      <c r="C55" s="11">
+        <v>1</v>
+      </c>
+      <c r="D55" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0.46394675925925927</v>
+      </c>
+      <c r="G55" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="11">
+        <v>54</v>
+      </c>
+      <c r="B56" s="14">
+        <v>5814989890.49578</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E56" s="13">
+        <v>0.46687499999999998</v>
+      </c>
+      <c r="G56" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="14">
+        <v>5243180567.0494204</v>
+      </c>
+      <c r="C57" s="11">
+        <v>1</v>
+      </c>
+      <c r="D57" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E57" s="13">
+        <v>0.46980324074074076</v>
+      </c>
+      <c r="G57" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="11">
+        <v>56</v>
+      </c>
+      <c r="B58" s="14">
+        <v>4676481694.3323202</v>
+      </c>
+      <c r="C58" s="11">
+        <v>1</v>
+      </c>
+      <c r="D58" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0.47278935185185184</v>
+      </c>
+      <c r="G58" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9861111111110783E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="11">
+        <v>57</v>
+      </c>
+      <c r="B59" s="14">
+        <v>4130171873.83957</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0.47572916666666665</v>
+      </c>
+      <c r="G59" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="11">
+        <v>58</v>
+      </c>
+      <c r="B60" s="14">
+        <v>4104999334.2312498</v>
+      </c>
+      <c r="C60" s="11">
+        <v>1</v>
+      </c>
+      <c r="D60" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E60" s="13">
+        <v>0.47865740740740742</v>
+      </c>
+      <c r="G60" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="11">
+        <v>59</v>
+      </c>
+      <c r="B61" s="14">
+        <v>35443995329.8424</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E61" s="13">
+        <v>0.48158564814814814</v>
+      </c>
+      <c r="G61" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="14">
+        <v>263348101.72556901</v>
+      </c>
+      <c r="C62" s="11">
+        <v>1</v>
+      </c>
+      <c r="D62" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E62" s="13">
+        <v>0.48452546296296295</v>
+      </c>
+      <c r="G62" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="11">
+        <v>61</v>
+      </c>
+      <c r="B63" s="14">
+        <v>29912948775.745399</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1</v>
+      </c>
+      <c r="D63" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E63" s="13">
+        <v>0.48745370370370372</v>
+      </c>
+      <c r="G63" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407729E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="14">
+        <v>27948890419.793301</v>
+      </c>
+      <c r="C64" s="11">
+        <v>1</v>
+      </c>
+      <c r="D64" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.49039351851851853</v>
+      </c>
+      <c r="G64" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="11">
+        <v>63</v>
+      </c>
+      <c r="B65" s="14">
+        <v>26558559511.613499</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1</v>
+      </c>
+      <c r="D65" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E65" s="13">
+        <v>0.49333333333333335</v>
+      </c>
+      <c r="G65" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9398148148148118E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="11">
+        <v>64</v>
+      </c>
+      <c r="B66" s="14">
+        <v>24578787360.9515</v>
+      </c>
+      <c r="C66" s="11">
+        <v>1</v>
+      </c>
+      <c r="D66" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0.49626157407407406</v>
+      </c>
+      <c r="G66" s="13">
+        <f t="shared" si="0"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="11">
+        <v>65</v>
+      </c>
+      <c r="B67" s="14">
+        <v>22848087155.5802</v>
+      </c>
+      <c r="C67" s="11">
+        <v>1</v>
+      </c>
+      <c r="D67" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E67" s="13">
+        <v>0.49928240740740742</v>
+      </c>
+      <c r="G67" s="13">
+        <f t="shared" si="0"/>
+        <v>3.0208333333333615E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="11">
+        <v>66</v>
+      </c>
+      <c r="B68" s="14">
+        <v>19894200704.584301</v>
+      </c>
+      <c r="C68" s="11">
+        <v>1</v>
+      </c>
+      <c r="D68" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E68" s="13">
+        <v>0.50247685185185187</v>
+      </c>
+      <c r="G68" s="13">
+        <f t="shared" ref="G68:G91" si="1">E68-E67</f>
+        <v>3.1944444444444442E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="11">
+        <v>67</v>
+      </c>
+      <c r="B69" s="14">
+        <v>1779463559.61466</v>
+      </c>
+      <c r="C69" s="11">
+        <v>1</v>
+      </c>
+      <c r="D69" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E69" s="13">
+        <v>0.50565972222222222</v>
+      </c>
+      <c r="G69" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1828703703703498E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="11">
+        <v>68</v>
+      </c>
+      <c r="B70" s="14">
+        <v>10304775059.9216</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1</v>
+      </c>
+      <c r="D70" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E70" s="13">
+        <v>0.50862268518518516</v>
+      </c>
+      <c r="G70" s="13">
+        <f t="shared" si="1"/>
+        <v>2.962962962962945E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="14">
+        <v>486934027.32169402</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E71" s="13">
+        <v>0.51158564814814811</v>
+      </c>
+      <c r="G71" s="13">
+        <f t="shared" si="1"/>
+        <v>2.962962962962945E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="11">
+        <v>70</v>
+      </c>
+      <c r="B72" s="14">
+        <v>46890721.705494799</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1</v>
+      </c>
+      <c r="D72" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E72" s="13">
+        <v>0.51452546296296298</v>
+      </c>
+      <c r="G72" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9398148148148673E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="11">
+        <v>71</v>
+      </c>
+      <c r="B73" s="14">
+        <v>1860972105.30533</v>
+      </c>
+      <c r="C73" s="11">
+        <v>1</v>
+      </c>
+      <c r="D73" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E73" s="13">
+        <v>0.51745370370370369</v>
+      </c>
+      <c r="G73" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="11">
+        <v>72</v>
+      </c>
+      <c r="B74" s="14">
+        <v>1177860866.6190801</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1</v>
+      </c>
+      <c r="D74" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E74" s="13">
+        <v>0.520625</v>
+      </c>
+      <c r="G74" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1712962962963109E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="11">
+        <v>73</v>
+      </c>
+      <c r="B75" s="14">
+        <v>9359386.1549834404</v>
+      </c>
+      <c r="C75" s="11">
+        <v>1</v>
+      </c>
+      <c r="D75" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E75" s="13">
+        <v>0.5240393518518518</v>
+      </c>
+      <c r="G75" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4143518518517935E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="11">
+        <v>74</v>
+      </c>
+      <c r="B76" s="14">
+        <v>71247733.046675399</v>
+      </c>
+      <c r="C76" s="11">
+        <v>1</v>
+      </c>
+      <c r="D76" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E76" s="13">
+        <v>0.52767361111111111</v>
+      </c>
+      <c r="G76" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6342592592593093E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="11">
+        <v>75</v>
+      </c>
+      <c r="B77" s="14">
+        <v>77351423.044547096</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+      <c r="D77" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E77" s="13">
+        <v>0.53092592592592591</v>
+      </c>
+      <c r="G77" s="13">
+        <f t="shared" si="1"/>
+        <v>3.2523148148148051E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="14">
+        <v>60348533.281739898</v>
+      </c>
+      <c r="C78" s="11">
+        <v>1</v>
+      </c>
+      <c r="D78" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E78" s="13">
+        <v>0.53440972222222227</v>
+      </c>
+      <c r="G78" s="13">
+        <f t="shared" si="1"/>
+        <v>3.4837962962963598E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="11">
+        <v>77</v>
+      </c>
+      <c r="B79" s="14">
+        <v>45290899.919336803</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1</v>
+      </c>
+      <c r="D79" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E79" s="13">
+        <v>0.53832175925925929</v>
+      </c>
+      <c r="G79" s="13">
+        <f t="shared" si="1"/>
+        <v>3.9120370370370194E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="11">
+        <v>78</v>
+      </c>
+      <c r="B80" s="14">
+        <v>39696356.424201399</v>
+      </c>
+      <c r="C80" s="11">
+        <v>1</v>
+      </c>
+      <c r="D80" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E80" s="13">
+        <v>0.54194444444444445</v>
+      </c>
+      <c r="G80" s="13">
+        <f t="shared" si="1"/>
+        <v>3.6226851851851594E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="11">
+        <v>79</v>
+      </c>
+      <c r="B81" s="14">
+        <v>3429800.4436550401</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1</v>
+      </c>
+      <c r="D81" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E81" s="13">
+        <v>0.54553240740740738</v>
+      </c>
+      <c r="G81" s="13">
+        <f t="shared" si="1"/>
+        <v>3.5879629629629317E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="11">
+        <v>80</v>
+      </c>
+      <c r="B82" s="14">
+        <v>32202802.2026188</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E82" s="13">
+        <v>0.54863425925925924</v>
+      </c>
+      <c r="G82" s="13">
+        <f t="shared" si="1"/>
+        <v>3.1018518518518556E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
+      <c r="B83" s="14">
+        <v>29280990.077040698</v>
+      </c>
+      <c r="C83" s="11">
+        <v>1</v>
+      </c>
+      <c r="D83" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E83" s="13">
+        <v>0.55156249999999996</v>
+      </c>
+      <c r="G83" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9282407407407174E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="11">
+        <v>82</v>
+      </c>
+      <c r="B84" s="14">
+        <v>269863011.93687701</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1</v>
+      </c>
+      <c r="D84" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E84" s="13">
+        <v>0.55447916666666663</v>
+      </c>
+      <c r="G84" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="11">
+        <v>83</v>
+      </c>
+      <c r="B85" s="14">
+        <v>249109426.420091</v>
+      </c>
+      <c r="C85" s="11">
+        <v>1</v>
+      </c>
+      <c r="D85" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E85" s="13">
+        <v>0.55738425925925927</v>
+      </c>
+      <c r="G85" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9050925925926396E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+      <c r="B86" s="14">
+        <v>23623622.169566199</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1</v>
+      </c>
+      <c r="D86" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E86" s="13">
+        <v>0.56030092592592595</v>
+      </c>
+      <c r="G86" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="11">
+        <v>85</v>
+      </c>
+      <c r="B87" s="14">
+        <v>225357972.28329101</v>
+      </c>
+      <c r="C87" s="11">
+        <v>1</v>
+      </c>
+      <c r="D87" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E87" s="13">
+        <v>0.56324074074074071</v>
+      </c>
+      <c r="G87" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9398148148147563E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="11">
+        <v>86</v>
+      </c>
+      <c r="B88" s="14">
+        <v>215934541.35881901</v>
+      </c>
+      <c r="C88" s="11">
+        <v>1</v>
+      </c>
+      <c r="D88" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E88" s="13">
+        <v>0.56615740740740739</v>
+      </c>
+      <c r="G88" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="11">
+        <v>87</v>
+      </c>
+      <c r="B89" s="14">
+        <v>20379978.593609799</v>
+      </c>
+      <c r="C89" s="11">
+        <v>1</v>
+      </c>
+      <c r="D89" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E89" s="13">
+        <v>0.56907407407407407</v>
+      </c>
+      <c r="G89" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="11">
+        <v>88</v>
+      </c>
+      <c r="B90" s="14">
+        <v>195765075.26153299</v>
+      </c>
+      <c r="C90" s="11">
+        <v>1</v>
+      </c>
+      <c r="D90" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E90" s="13">
+        <v>0.57199074074074074</v>
+      </c>
+      <c r="G90" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+      <c r="B91" s="14">
+        <v>187190298.817085</v>
+      </c>
+      <c r="C91" s="11">
+        <v>1</v>
+      </c>
+      <c r="D91" s="12">
+        <v>45711</v>
+      </c>
+      <c r="E91" s="13">
+        <v>0.57490740740740742</v>
+      </c>
+      <c r="G91" s="13">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666785E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G94" s="15">
+        <f>SUM(G3:G91)</f>
+        <v>0.26833333333333337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G95" s="13">
+        <f>AVERAGE(G3:G91)</f>
+        <v>3.01498127340824E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.4921259845" footer="0.4921259845"/>
+</worksheet>
 </file>
--- a/Abgabe/Model Doku Master.xlsx
+++ b/Abgabe/Model Doku Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreasbraig/Documents/VSCode/Bildverarbeitung_Vorlesung/Abgabe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508D92ED-48C1-084C-939C-D6FFC7826901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B24BCDA-E789-3944-AED4-E9C464EC4CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35180" windowHeight="27180" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17920" activeTab="5" xr2:uid="{49D3DC9D-7CC7-48E6-A437-E9B65023B1ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="5" r:id="rId1"/>
@@ -22,13 +22,6 @@
     <sheet name="60 Epochen" sheetId="2" r:id="rId7"/>
     <sheet name="model90" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">Overview!$A$2:$A$6</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">Overview!$B$1</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Overview!$B$2:$B$6</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Overview!$C$1</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Overview!$C$2:$C$6</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -816,14 +809,14 @@
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="42" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1442,6 +1435,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="301532943"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -9167,7 +9161,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC10158E-3963-A748-AB22-DA18A4F1DE3E}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+    <sheetView zoomScale="136" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -9314,12 +9308,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -11573,7 +11567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC498385-F781-1D46-AB1B-BE94DB902872}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -13146,1922 +13140,1922 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="11"/>
+    <col min="1" max="1" width="6.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>0.653595089912414</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>0.644656121730804</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>45711</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>0.30657407407407405</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>0.60180276632308904</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>0.690837621688842</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>45711</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>0.30950231481481483</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <f>E3-E2</f>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>0.57095140218734697</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.72028475999832098</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>45711</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.31243055555555554</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="12">
         <f t="shared" ref="G4:G67" si="0">E4-E3</f>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>0.56051188707351596</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>0.71498709917068404</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>45711</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.31535879629629632</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>0.52893835306167603</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="10">
         <v>0.74259436130523604</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>45711</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>0.31828703703703703</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>0.48840641975402799</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="10">
         <v>0.76719671487808205</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="11">
         <v>45711</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>0.32121527777777775</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>0.43280255794525102</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="10">
         <v>0.81758505105972201</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>45711</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0.32414351851851853</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>0.335306286811828</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="10">
         <v>0.85409575700759799</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>45711</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0.3270601851851852</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="12">
         <f t="shared" si="0"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>0.293047875165939</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="10">
         <v>0.87576735019683805</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>45711</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0.33</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>0.30572625994682301</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="10">
         <v>0.86615192890167203</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>45711</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>0.33291666666666669</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="12">
         <f t="shared" si="0"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>0.26660200953483498</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <v>0.88842451572418202</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>45711</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>0.33584490740740741</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>0.292032390832901</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <v>0.87991863489151001</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>45711</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0.33877314814814813</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>0.250749051570892</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <v>0.88962644338607699</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>45711</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0.3417013888888889</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>0.15981958806514701</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0.93751847743988004</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>45711</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>0.34462962962962962</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>0.13520781695842701</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <v>0.94593197107314997</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <v>45711</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0.34756944444444443</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>0.139663681387901</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <v>0.945367932319641</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <v>45711</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>0.3504976851851852</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="10">
         <v>0.100849889218807</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="10">
         <v>0.96578216552734297</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="11">
         <v>45711</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>0.35342592592592592</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="10">
         <v>6.6582910716533605E-2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="10">
         <v>0.97778290510177601</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="11">
         <v>45711</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0.35635416666666669</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="10">
         <v>0.19115012884140001</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>0.93036240339279097</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="11">
         <v>45711</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0.35928240740740741</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="10">
         <v>9.8709613084792994E-2</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="10">
         <v>0.96159392595291104</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="11">
         <v>45711</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>0.36222222222222222</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <v>3.3997856080531998E-2</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="10">
         <v>0.98863720893859797</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="11">
         <v>45711</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>0.3651388888888889</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <f t="shared" si="0"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="10">
         <v>1.6894316300749699E-2</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="10">
         <v>0.99639421701431197</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="11">
         <v>45711</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>0.36806712962962962</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="10">
         <v>9.5012923702597601E-3</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="10">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="11">
         <v>45711</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>0.37099537037037039</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="10">
         <v>5.0766649655997701E-3</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="10">
         <v>1</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="11">
         <v>45711</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>0.3739351851851852</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="10">
         <v>9.1186827048659307E-3</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="10">
         <v>0.99699521064758301</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="11">
         <v>45711</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>0.37686342592592592</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>1.14507870748639E-2</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="10">
         <v>0.99579328298568703</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="11">
         <v>45711</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>0.3797800925925926</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="12">
         <f t="shared" si="0"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="10">
         <v>3.7320446223020498E-2</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="10">
         <v>0.98677885532379095</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="11">
         <v>45711</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>0.38288194444444446</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="12">
         <f t="shared" si="0"/>
         <v>3.1018518518518556E-3</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="10">
         <v>1.44210970029234E-2</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="10">
         <v>0.99579328298568703</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="11">
         <v>45711</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>0.38581018518518517</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="10">
         <v>2.2964600939303602E-3</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="10">
         <v>1</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>45711</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>0.38874999999999998</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <v>1.06399180367589E-3</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="10">
         <v>1</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="11">
         <v>45711</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>0.39167824074074076</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="10">
         <v>9.1404430568218197E-3</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="10">
         <v>0.99579328298568703</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="11">
         <v>45711</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>0.39460648148148147</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="10">
         <v>6.4988718368112998E-3</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="10">
         <v>0.99759614467620805</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="11">
         <v>45711</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>0.39752314814814815</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="12">
         <f t="shared" si="0"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="10">
         <v>8.2086734473705195E-2</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="10">
         <v>0.97115385532379095</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="11">
         <v>45711</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>0.40046296296296297</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="10">
         <v>6.8978825584053898E-3</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="10">
         <v>0.99879807233810403</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="11">
         <v>45711</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>0.40337962962962964</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <f t="shared" si="0"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="10">
         <v>4.3545113876461896E-3</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="10">
         <v>0.99879807233810403</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="11">
         <v>45711</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>0.40630787037037036</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="10">
         <v>4.6032802201807499E-3</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="10">
         <v>0.99701368808746305</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="11">
         <v>45711</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>0.40923611111111113</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="10">
         <v>1.89671327825635E-3</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="10">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="11">
         <v>45711</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="12">
         <v>0.41230324074074076</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <f t="shared" si="0"/>
         <v>3.067129629629628E-3</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <v>2.9471772722899901E-3</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="10">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="11">
         <v>45711</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="12">
         <v>0.41543981481481479</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="12">
         <f t="shared" si="0"/>
         <v>3.1365740740740278E-3</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <v>2.21674781641922E-4</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="10">
         <v>1</v>
       </c>
-      <c r="D40" s="12">
+      <c r="D40" s="11">
         <v>45711</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="12">
         <v>0.41863425925925923</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="12">
         <f t="shared" si="0"/>
         <v>3.1944444444444442E-3</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="11">
+      <c r="A41" s="10">
         <v>39</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <v>5.0897044129669597E-3</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="10">
         <v>0.99879807233810403</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="11">
         <v>45711</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="12">
         <v>0.42171296296296296</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="12">
         <f t="shared" si="0"/>
         <v>3.0787037037037224E-3</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="11">
+      <c r="A42" s="10">
         <v>40</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <v>4.8513920046389103E-3</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="10">
         <v>0.99879807233810403</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D42" s="11">
         <v>45711</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="12">
         <v>0.4246875</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="12">
         <f t="shared" si="0"/>
         <v>2.9745370370370394E-3</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="11">
+      <c r="A43" s="10">
         <v>41</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="10">
         <v>2.5055955629795699E-3</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="10">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="11">
         <v>45711</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="12">
         <v>0.42787037037037035</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="12">
         <f t="shared" si="0"/>
         <v>3.1828703703703498E-3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="11">
+      <c r="A44" s="10">
         <v>42</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="10">
         <v>1.80919060949236E-3</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="10">
         <v>1</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D44" s="11">
         <v>45711</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="12">
         <v>0.43113425925925924</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="12">
         <f t="shared" si="0"/>
         <v>3.2638888888888995E-3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="11">
+      <c r="A45" s="10">
         <v>43</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="10">
         <v>2.8605788247659802E-4</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="10">
         <v>1</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <v>45711</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="12">
         <v>0.43427083333333333</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="12">
         <f t="shared" si="0"/>
         <v>3.1365740740740833E-3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="11">
+      <c r="A46" s="10">
         <v>44</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="10">
         <v>1.8644806696101999E-3</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="10">
         <v>0.99939906597137396</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="11">
         <v>45711</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="12">
         <v>0.43731481481481482</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="12">
         <f t="shared" si="0"/>
         <v>3.0439814814814947E-3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="11">
+      <c r="A47" s="10">
         <v>45</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="10">
         <v>1.58238093717955E-4</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="10">
         <v>1</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="11">
         <v>45711</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="12">
         <v>0.44035879629629632</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="12">
         <f t="shared" si="0"/>
         <v>3.0439814814814947E-3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="11">
+      <c r="A48" s="10">
         <v>46</v>
       </c>
-      <c r="B48" s="14">
+      <c r="B48" s="13">
         <v>473819527542.21802</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="10">
         <v>1</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="11">
         <v>45711</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="12">
         <v>0.44339120370370372</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="12">
         <f t="shared" si="0"/>
         <v>3.0324074074074003E-3</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="11">
+      <c r="A49" s="10">
         <v>47</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="10">
         <v>1.35879294248297E-4</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="10">
         <v>1</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="11">
         <v>45711</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="12">
         <v>0.44636574074074076</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="12">
         <f t="shared" si="0"/>
         <v>2.9745370370370394E-3</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" s="11">
+      <c r="A50" s="10">
         <v>48</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B50" s="13">
         <v>225463190872.68701</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="10">
         <v>1</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="11">
         <v>45711</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="12">
         <v>0.44930555555555557</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" s="11">
+      <c r="A51" s="10">
         <v>49</v>
       </c>
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <v>145356616485.51401</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="10">
         <v>1</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="11">
         <v>45711</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="12">
         <v>0.45222222222222225</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="12">
         <f t="shared" si="0"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" s="11">
+      <c r="A52" s="10">
         <v>50</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="13">
         <v>113563664854.15401</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="10">
         <v>1</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="11">
         <v>45711</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="12">
         <v>0.45515046296296297</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="11">
+      <c r="A53" s="10">
         <v>51</v>
       </c>
-      <c r="B53" s="14">
+      <c r="B53" s="13">
         <v>9784016583.5805206</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="10">
         <v>1</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="11">
         <v>45711</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="12">
         <v>0.45807870370370368</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="11">
+      <c r="A54" s="10">
         <v>52</v>
       </c>
-      <c r="B54" s="14">
+      <c r="B54" s="13">
         <v>7648681275.8957901</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="10">
         <v>1</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D54" s="11">
         <v>45711</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="12">
         <v>0.46101851851851849</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="11">
+      <c r="A55" s="10">
         <v>53</v>
       </c>
-      <c r="B55" s="14">
+      <c r="B55" s="13">
         <v>6602242592.63486</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="10">
         <v>1</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="11">
         <v>45711</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="12">
         <v>0.46394675925925927</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="11">
+      <c r="A56" s="10">
         <v>54</v>
       </c>
-      <c r="B56" s="14">
+      <c r="B56" s="13">
         <v>5814989890.49578</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="10">
         <v>1</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="11">
         <v>45711</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="12">
         <v>0.46687499999999998</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="11">
+      <c r="A57" s="10">
         <v>55</v>
       </c>
-      <c r="B57" s="14">
+      <c r="B57" s="13">
         <v>5243180567.0494204</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="10">
         <v>1</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="11">
         <v>45711</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="12">
         <v>0.46980324074074076</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="11">
+      <c r="A58" s="10">
         <v>56</v>
       </c>
-      <c r="B58" s="14">
+      <c r="B58" s="13">
         <v>4676481694.3323202</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="10">
         <v>1</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D58" s="11">
         <v>45711</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="12">
         <v>0.47278935185185184</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="12">
         <f t="shared" si="0"/>
         <v>2.9861111111110783E-3</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" s="11">
+      <c r="A59" s="10">
         <v>57</v>
       </c>
-      <c r="B59" s="14">
+      <c r="B59" s="13">
         <v>4130171873.83957</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="10">
         <v>1</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="11">
         <v>45711</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="12">
         <v>0.47572916666666665</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="11">
+      <c r="A60" s="10">
         <v>58</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="13">
         <v>4104999334.2312498</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C60" s="10">
         <v>1</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D60" s="11">
         <v>45711</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="12">
         <v>0.47865740740740742</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="11">
+      <c r="A61" s="10">
         <v>59</v>
       </c>
-      <c r="B61" s="14">
+      <c r="B61" s="13">
         <v>35443995329.8424</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C61" s="10">
         <v>1</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D61" s="11">
         <v>45711</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="12">
         <v>0.48158564814814814</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="11">
+      <c r="A62" s="10">
         <v>60</v>
       </c>
-      <c r="B62" s="14">
+      <c r="B62" s="13">
         <v>263348101.72556901</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C62" s="10">
         <v>1</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="11">
         <v>45711</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="12">
         <v>0.48452546296296295</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="11">
+      <c r="A63" s="10">
         <v>61</v>
       </c>
-      <c r="B63" s="14">
+      <c r="B63" s="13">
         <v>29912948775.745399</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C63" s="10">
         <v>1</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="11">
         <v>45711</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="12">
         <v>0.48745370370370372</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407729E-3</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="11">
+      <c r="A64" s="10">
         <v>62</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="13">
         <v>27948890419.793301</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C64" s="10">
         <v>1</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="11">
         <v>45711</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="12">
         <v>0.49039351851851853</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="11">
+      <c r="A65" s="10">
         <v>63</v>
       </c>
-      <c r="B65" s="14">
+      <c r="B65" s="13">
         <v>26558559511.613499</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C65" s="10">
         <v>1</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="11">
         <v>45711</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="12">
         <v>0.49333333333333335</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="12">
         <f t="shared" si="0"/>
         <v>2.9398148148148118E-3</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="11">
+      <c r="A66" s="10">
         <v>64</v>
       </c>
-      <c r="B66" s="14">
+      <c r="B66" s="13">
         <v>24578787360.9515</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C66" s="10">
         <v>1</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="11">
         <v>45711</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="12">
         <v>0.49626157407407406</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="12">
         <f t="shared" si="0"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" s="11">
+      <c r="A67" s="10">
         <v>65</v>
       </c>
-      <c r="B67" s="14">
+      <c r="B67" s="13">
         <v>22848087155.5802</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C67" s="10">
         <v>1</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D67" s="11">
         <v>45711</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="12">
         <v>0.49928240740740742</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="12">
         <f t="shared" si="0"/>
         <v>3.0208333333333615E-3</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="11">
+      <c r="A68" s="10">
         <v>66</v>
       </c>
-      <c r="B68" s="14">
+      <c r="B68" s="13">
         <v>19894200704.584301</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C68" s="10">
         <v>1</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="11">
         <v>45711</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="12">
         <v>0.50247685185185187</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="12">
         <f t="shared" ref="G68:G91" si="1">E68-E67</f>
         <v>3.1944444444444442E-3</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="11">
+      <c r="A69" s="10">
         <v>67</v>
       </c>
-      <c r="B69" s="14">
+      <c r="B69" s="13">
         <v>1779463559.61466</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="10">
         <v>1</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="11">
         <v>45711</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="12">
         <v>0.50565972222222222</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="12">
         <f t="shared" si="1"/>
         <v>3.1828703703703498E-3</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="11">
+      <c r="A70" s="10">
         <v>68</v>
       </c>
-      <c r="B70" s="14">
+      <c r="B70" s="13">
         <v>10304775059.9216</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C70" s="10">
         <v>1</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D70" s="11">
         <v>45711</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E70" s="12">
         <v>0.50862268518518516</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="12">
         <f t="shared" si="1"/>
         <v>2.962962962962945E-3</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="11">
+      <c r="A71" s="10">
         <v>69</v>
       </c>
-      <c r="B71" s="14">
+      <c r="B71" s="13">
         <v>486934027.32169402</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C71" s="10">
         <v>1</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D71" s="11">
         <v>45711</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E71" s="12">
         <v>0.51158564814814811</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="12">
         <f t="shared" si="1"/>
         <v>2.962962962962945E-3</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="11">
+      <c r="A72" s="10">
         <v>70</v>
       </c>
-      <c r="B72" s="14">
+      <c r="B72" s="13">
         <v>46890721.705494799</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C72" s="10">
         <v>1</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D72" s="11">
         <v>45711</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E72" s="12">
         <v>0.51452546296296298</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="12">
         <f t="shared" si="1"/>
         <v>2.9398148148148673E-3</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="11">
+      <c r="A73" s="10">
         <v>71</v>
       </c>
-      <c r="B73" s="14">
+      <c r="B73" s="13">
         <v>1860972105.30533</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C73" s="10">
         <v>1</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D73" s="11">
         <v>45711</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E73" s="12">
         <v>0.51745370370370369</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="12">
         <f t="shared" si="1"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="11">
+      <c r="A74" s="10">
         <v>72</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <v>1177860866.6190801</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C74" s="10">
         <v>1</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="11">
         <v>45711</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="12">
         <v>0.520625</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="12">
         <f t="shared" si="1"/>
         <v>3.1712962962963109E-3</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" s="11">
+      <c r="A75" s="10">
         <v>73</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>9359386.1549834404</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C75" s="10">
         <v>1</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D75" s="11">
         <v>45711</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E75" s="12">
         <v>0.5240393518518518</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="12">
         <f t="shared" si="1"/>
         <v>3.4143518518517935E-3</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" s="11">
+      <c r="A76" s="10">
         <v>74</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>71247733.046675399</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C76" s="10">
         <v>1</v>
       </c>
-      <c r="D76" s="12">
+      <c r="D76" s="11">
         <v>45711</v>
       </c>
-      <c r="E76" s="13">
+      <c r="E76" s="12">
         <v>0.52767361111111111</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="12">
         <f t="shared" si="1"/>
         <v>3.6342592592593093E-3</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="11">
+      <c r="A77" s="10">
         <v>75</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="13">
         <v>77351423.044547096</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C77" s="10">
         <v>1</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="11">
         <v>45711</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="12">
         <v>0.53092592592592591</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="12">
         <f t="shared" si="1"/>
         <v>3.2523148148148051E-3</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" s="11">
+      <c r="A78" s="10">
         <v>76</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="13">
         <v>60348533.281739898</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C78" s="10">
         <v>1</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="11">
         <v>45711</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E78" s="12">
         <v>0.53440972222222227</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="12">
         <f t="shared" si="1"/>
         <v>3.4837962962963598E-3</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="11">
+      <c r="A79" s="10">
         <v>77</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="13">
         <v>45290899.919336803</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C79" s="10">
         <v>1</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="11">
         <v>45711</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E79" s="12">
         <v>0.53832175925925929</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="12">
         <f t="shared" si="1"/>
         <v>3.9120370370370194E-3</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" s="11">
+      <c r="A80" s="10">
         <v>78</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="13">
         <v>39696356.424201399</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C80" s="10">
         <v>1</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="11">
         <v>45711</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E80" s="12">
         <v>0.54194444444444445</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="12">
         <f t="shared" si="1"/>
         <v>3.6226851851851594E-3</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A81" s="11">
+      <c r="A81" s="10">
         <v>79</v>
       </c>
-      <c r="B81" s="14">
+      <c r="B81" s="13">
         <v>3429800.4436550401</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C81" s="10">
         <v>1</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D81" s="11">
         <v>45711</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E81" s="12">
         <v>0.54553240740740738</v>
       </c>
-      <c r="G81" s="13">
+      <c r="G81" s="12">
         <f t="shared" si="1"/>
         <v>3.5879629629629317E-3</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="11">
+      <c r="A82" s="10">
         <v>80</v>
       </c>
-      <c r="B82" s="14">
+      <c r="B82" s="13">
         <v>32202802.2026188</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="10">
         <v>1</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D82" s="11">
         <v>45711</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E82" s="12">
         <v>0.54863425925925924</v>
       </c>
-      <c r="G82" s="13">
+      <c r="G82" s="12">
         <f t="shared" si="1"/>
         <v>3.1018518518518556E-3</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" s="11">
+      <c r="A83" s="10">
         <v>81</v>
       </c>
-      <c r="B83" s="14">
+      <c r="B83" s="13">
         <v>29280990.077040698</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C83" s="10">
         <v>1</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="11">
         <v>45711</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E83" s="12">
         <v>0.55156249999999996</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="12">
         <f t="shared" si="1"/>
         <v>2.9282407407407174E-3</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="11">
+      <c r="A84" s="10">
         <v>82</v>
       </c>
-      <c r="B84" s="14">
+      <c r="B84" s="13">
         <v>269863011.93687701</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C84" s="10">
         <v>1</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="11">
         <v>45711</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="12">
         <v>0.55447916666666663</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="12">
         <f t="shared" si="1"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="11">
+      <c r="A85" s="10">
         <v>83</v>
       </c>
-      <c r="B85" s="14">
+      <c r="B85" s="13">
         <v>249109426.420091</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C85" s="10">
         <v>1</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="11">
         <v>45711</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E85" s="12">
         <v>0.55738425925925927</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="12">
         <f t="shared" si="1"/>
         <v>2.9050925925926396E-3</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="11">
+      <c r="A86" s="10">
         <v>84</v>
       </c>
-      <c r="B86" s="14">
+      <c r="B86" s="13">
         <v>23623622.169566199</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C86" s="10">
         <v>1</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D86" s="11">
         <v>45711</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E86" s="12">
         <v>0.56030092592592595</v>
       </c>
-      <c r="G86" s="13">
+      <c r="G86" s="12">
         <f t="shared" si="1"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="11">
+      <c r="A87" s="10">
         <v>85</v>
       </c>
-      <c r="B87" s="14">
+      <c r="B87" s="13">
         <v>225357972.28329101</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C87" s="10">
         <v>1</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="11">
         <v>45711</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="12">
         <v>0.56324074074074071</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="12">
         <f t="shared" si="1"/>
         <v>2.9398148148147563E-3</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="11">
+      <c r="A88" s="10">
         <v>86</v>
       </c>
-      <c r="B88" s="14">
+      <c r="B88" s="13">
         <v>215934541.35881901</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C88" s="10">
         <v>1</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D88" s="11">
         <v>45711</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E88" s="12">
         <v>0.56615740740740739</v>
       </c>
-      <c r="G88" s="13">
+      <c r="G88" s="12">
         <f t="shared" si="1"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="11">
+      <c r="A89" s="10">
         <v>87</v>
       </c>
-      <c r="B89" s="14">
+      <c r="B89" s="13">
         <v>20379978.593609799</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C89" s="10">
         <v>1</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D89" s="11">
         <v>45711</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E89" s="12">
         <v>0.56907407407407407</v>
       </c>
-      <c r="G89" s="13">
+      <c r="G89" s="12">
         <f t="shared" si="1"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="11">
+      <c r="A90" s="10">
         <v>88</v>
       </c>
-      <c r="B90" s="14">
+      <c r="B90" s="13">
         <v>195765075.26153299</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C90" s="10">
         <v>1</v>
       </c>
-      <c r="D90" s="12">
+      <c r="D90" s="11">
         <v>45711</v>
       </c>
-      <c r="E90" s="13">
+      <c r="E90" s="12">
         <v>0.57199074074074074</v>
       </c>
-      <c r="G90" s="13">
+      <c r="G90" s="12">
         <f t="shared" si="1"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="11">
+      <c r="A91" s="10">
         <v>89</v>
       </c>
-      <c r="B91" s="14">
+      <c r="B91" s="13">
         <v>187190298.817085</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C91" s="10">
         <v>1</v>
       </c>
-      <c r="D91" s="12">
+      <c r="D91" s="11">
         <v>45711</v>
       </c>
-      <c r="E91" s="13">
+      <c r="E91" s="12">
         <v>0.57490740740740742</v>
       </c>
-      <c r="G91" s="13">
+      <c r="G91" s="12">
         <f t="shared" si="1"/>
         <v>2.9166666666666785E-3</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G94" s="15">
+      <c r="G94" s="14">
         <f>SUM(G3:G91)</f>
         <v>0.26833333333333337</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G95" s="13">
+      <c r="G95" s="12">
         <f>AVERAGE(G3:G91)</f>
         <v>3.01498127340824E-3</v>
       </c>
